--- a/Dados/BR_TRI/tabPSTRI_2012.xlsx
+++ b/Dados/BR_TRI/tabPSTRI_2012.xlsx
@@ -16,12 +16,9 @@
     <sheet name="N PRINCIPAL" sheetId="7" r:id="rId7"/>
     <sheet name="HABITUAL PRINCIPAL" sheetId="8" r:id="rId8"/>
     <sheet name="EFETIVA PRINCIPAL" sheetId="9" r:id="rId9"/>
-    <sheet name="N P&amp;S" sheetId="10" r:id="rId10"/>
-    <sheet name="HABITUAL P&amp;S" sheetId="11" r:id="rId11"/>
-    <sheet name="EFETIVA P&amp;S" sheetId="12" r:id="rId12"/>
-    <sheet name="N SECUNDÁRIO" sheetId="13" r:id="rId13"/>
-    <sheet name="HABITUAL SECUNDÁRIO" sheetId="14" r:id="rId14"/>
-    <sheet name="EFETIVA SECUNDÁRIO" sheetId="15" r:id="rId15"/>
+    <sheet name="N SECUNDÁRIO" sheetId="10" r:id="rId10"/>
+    <sheet name="HABITUAL SECUNDÁRIO" sheetId="11" r:id="rId11"/>
+    <sheet name="EFETIVA SECUNDÁRIO" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +546,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>cod_SCN_PR</t>
+          <t>cod_SCN_SEC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -608,22 +605,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>42087.44280481</v>
+        <v>806.39503175</v>
       </c>
       <c r="E2">
-        <v>5149.36027007504</v>
+        <v>493.4179981451271</v>
       </c>
       <c r="F2">
-        <v>31933.12812152556</v>
+        <v>-166.603818743882</v>
       </c>
       <c r="G2">
-        <v>52241.75748809444</v>
+        <v>1779.393882243882</v>
       </c>
       <c r="H2">
-        <v>26515911.19102729</v>
+        <v>243461.3208935446</v>
       </c>
       <c r="I2">
-        <v>0.1223490886333094</v>
+        <v>0.6118812476737795</v>
       </c>
     </row>
     <row r="3">
@@ -641,22 +638,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>46093.07864357</v>
+        <v>136.05451265</v>
       </c>
       <c r="E3">
-        <v>5198.862951033913</v>
+        <v>136.8317908784352</v>
       </c>
       <c r="F3">
-        <v>35841.1468246107</v>
+        <v>-133.7718328344174</v>
       </c>
       <c r="G3">
-        <v>56345.0104625293</v>
+        <v>405.8808581344174</v>
       </c>
       <c r="H3">
-        <v>27028175.98363305</v>
+        <v>18722.93899499981</v>
       </c>
       <c r="I3">
-        <v>0.1127905339375537</v>
+        <v>1.005712991162849</v>
       </c>
     </row>
     <row r="4">
@@ -670,31 +667,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4">
-        <v>34427.07582711</v>
+        <v>2673.02401096</v>
       </c>
       <c r="E4">
-        <v>5167.361345463473</v>
+        <v>1831.680642798338</v>
       </c>
       <c r="F4">
-        <v>24237.26380540976</v>
+        <v>-938.9706195854387</v>
       </c>
       <c r="G4">
-        <v>44616.88784881023</v>
+        <v>6285.018641505439</v>
       </c>
       <c r="H4">
-        <v>26701623.27459008</v>
+        <v>3355053.977202133</v>
       </c>
       <c r="I4">
-        <v>0.1500958539555769</v>
+        <v>0.6852466103140246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -703,26 +700,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5">
-        <v>20025.14293726</v>
+        <v>505954.59238966</v>
       </c>
       <c r="E5">
-        <v>3247.720716009112</v>
+        <v>18979.10925815768</v>
       </c>
       <c r="F5">
-        <v>13620.77881742385</v>
+        <v>468528.613683967</v>
       </c>
       <c r="G5">
-        <v>26429.50705709615</v>
+        <v>543380.5710953531</v>
       </c>
       <c r="H5">
-        <v>10547689.84919474</v>
+        <v>360206588.2330865</v>
       </c>
       <c r="I5">
-        <v>0.1621821490205798</v>
+        <v>0.03751148728291599</v>
       </c>
     </row>
     <row r="6">
@@ -736,26 +733,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6">
-        <v>10068417.21159241</v>
+        <v>482210.58499768</v>
       </c>
       <c r="E6">
-        <v>103126.0377245478</v>
+        <v>17597.79445670224</v>
       </c>
       <c r="F6">
-        <v>9865057.146618735</v>
+        <v>447508.4990543888</v>
       </c>
       <c r="G6">
-        <v>10271777.27656608</v>
+        <v>516912.6709409712</v>
       </c>
       <c r="H6">
-        <v>10634979656.76486</v>
+        <v>309682369.7403401</v>
       </c>
       <c r="I6">
-        <v>0.01024252725699649</v>
+        <v>0.03649400283651365</v>
       </c>
     </row>
     <row r="7">
@@ -769,26 +766,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7">
-        <v>10339764.72974535</v>
+        <v>428173.94242297</v>
       </c>
       <c r="E7">
-        <v>115279.4586852606</v>
+        <v>17500.04350477215</v>
       </c>
       <c r="F7">
-        <v>10112438.64677315</v>
+        <v>393664.6171090442</v>
       </c>
       <c r="G7">
-        <v>10567090.81271755</v>
+        <v>462683.2677368958</v>
       </c>
       <c r="H7">
-        <v>13289353594.76671</v>
+        <v>306251522.6689178</v>
       </c>
       <c r="I7">
-        <v>0.01114913749958213</v>
+        <v>0.04087134169291599</v>
       </c>
     </row>
     <row r="8">
@@ -802,31 +799,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D8">
-        <v>10168054.86809672</v>
+        <v>401326.20723529</v>
       </c>
       <c r="E8">
-        <v>119280.094482714</v>
+        <v>15624.71315862596</v>
       </c>
       <c r="F8">
-        <v>9932839.705182565</v>
+        <v>370514.9518700811</v>
       </c>
       <c r="G8">
-        <v>10403270.03101088</v>
+        <v>432137.4626004989</v>
       </c>
       <c r="H8">
-        <v>14227740939.80519</v>
+        <v>244131661.2893391</v>
       </c>
       <c r="I8">
-        <v>0.01173086652560926</v>
+        <v>0.03893270082276357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -835,26 +832,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9">
-        <v>10026178.43002972</v>
+        <v>2750.3468639</v>
       </c>
       <c r="E9">
-        <v>108235.0759356971</v>
+        <v>944.5645261328622</v>
       </c>
       <c r="F9">
-        <v>9812743.563720737</v>
+        <v>887.7066651242474</v>
       </c>
       <c r="G9">
-        <v>10239613.2963387</v>
+        <v>4612.987062675752</v>
       </c>
       <c r="H9">
-        <v>11714831662.80613</v>
+        <v>892202.1440285984</v>
       </c>
       <c r="I9">
-        <v>0.01079524733087922</v>
+        <v>0.3434346912859809</v>
       </c>
     </row>
     <row r="10">
@@ -868,26 +865,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10">
-        <v>528107.38939384</v>
+        <v>3827.47249227</v>
       </c>
       <c r="E10">
-        <v>24465.32635769189</v>
+        <v>1320.658278658861</v>
       </c>
       <c r="F10">
-        <v>479862.8289755346</v>
+        <v>1223.191756948406</v>
       </c>
       <c r="G10">
-        <v>576351.9498121454</v>
+        <v>6431.753227591595</v>
       </c>
       <c r="H10">
-        <v>598552193.7883734</v>
+        <v>1744138.288990185</v>
       </c>
       <c r="I10">
-        <v>0.04632642308938929</v>
+        <v>0.345047098660036</v>
       </c>
     </row>
     <row r="11">
@@ -901,26 +898,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D11">
-        <v>552861.09789103</v>
+        <v>3781.99499432</v>
       </c>
       <c r="E11">
-        <v>24692.14158275094</v>
+        <v>1418.418492423571</v>
       </c>
       <c r="F11">
-        <v>504169.2677053335</v>
+        <v>984.9353656976355</v>
       </c>
       <c r="G11">
-        <v>601552.9280767265</v>
+        <v>6579.054622942364</v>
       </c>
       <c r="H11">
-        <v>609701855.942618</v>
+        <v>2011911.019649155</v>
       </c>
       <c r="I11">
-        <v>0.04466246888584265</v>
+        <v>0.375045047535448</v>
       </c>
     </row>
     <row r="12">
@@ -934,31 +931,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D12">
-        <v>540602.76512927</v>
+        <v>3781.7387581</v>
       </c>
       <c r="E12">
-        <v>23549.28820938898</v>
+        <v>1502.597492340474</v>
       </c>
       <c r="F12">
-        <v>494164.5921322948</v>
+        <v>818.6817997029293</v>
       </c>
       <c r="G12">
-        <v>587040.9381262453</v>
+        <v>6744.79571649707</v>
       </c>
       <c r="H12">
-        <v>554568975.1688669</v>
+        <v>2257799.223987882</v>
       </c>
       <c r="I12">
-        <v>0.04356116862213575</v>
+        <v>0.3973297968089687</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -967,26 +964,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13">
-        <v>554152.69493846</v>
+        <v>143969.07616857</v>
       </c>
       <c r="E13">
-        <v>27632.61569916713</v>
+        <v>9243.916988826459</v>
       </c>
       <c r="F13">
-        <v>499662.3775756937</v>
+        <v>125740.4735679337</v>
       </c>
       <c r="G13">
-        <v>608643.0123012264</v>
+        <v>162197.6787692063</v>
       </c>
       <c r="H13">
-        <v>763561450.3778579</v>
+        <v>85450001.29631442</v>
       </c>
       <c r="I13">
-        <v>0.04986462386912294</v>
+        <v>0.06420765649703117</v>
       </c>
     </row>
     <row r="14">
@@ -1000,26 +997,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14">
-        <v>11603764.73329487</v>
+        <v>152911.30712127</v>
       </c>
       <c r="E14">
-        <v>116726.041945402</v>
+        <v>10849.42539414353</v>
       </c>
       <c r="F14">
-        <v>11373586.05099603</v>
+        <v>131516.7117139175</v>
       </c>
       <c r="G14">
-        <v>11833943.41559371</v>
+        <v>174305.9025286225</v>
       </c>
       <c r="H14">
-        <v>13624968868.23974</v>
+        <v>117710031.3830865</v>
       </c>
       <c r="I14">
-        <v>0.01005932510941712</v>
+        <v>0.07095240763025545</v>
       </c>
     </row>
     <row r="15">
@@ -1033,26 +1030,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15">
-        <v>11880320.39605139</v>
+        <v>129873.70730248</v>
       </c>
       <c r="E15">
-        <v>117514.5237252934</v>
+        <v>9246.295316085398</v>
       </c>
       <c r="F15">
-        <v>11648586.86194667</v>
+        <v>111640.4147438411</v>
       </c>
       <c r="G15">
-        <v>12112053.93015611</v>
+        <v>148106.9998611189</v>
       </c>
       <c r="H15">
-        <v>13809663286.38255</v>
+        <v>85493977.07226276</v>
       </c>
       <c r="I15">
-        <v>0.009891528158142199</v>
+        <v>0.07119451279349777</v>
       </c>
     </row>
     <row r="16">
@@ -1066,31 +1063,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16">
-        <v>11896416.84677587</v>
+        <v>121197.28300599</v>
       </c>
       <c r="E16">
-        <v>124691.6376195654</v>
+        <v>8417.033710427198</v>
       </c>
       <c r="F16">
-        <v>11650530.3559585</v>
+        <v>104599.2582975255</v>
       </c>
       <c r="G16">
-        <v>12142303.33759324</v>
+        <v>137795.3077144545</v>
       </c>
       <c r="H16">
-        <v>15548004492.24903</v>
+        <v>70846456.48246785</v>
       </c>
       <c r="I16">
-        <v>0.01048144489433883</v>
+        <v>0.0694490297279288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1099,26 +1096,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17">
-        <v>11872891.48144458</v>
+        <v>12795.88857243</v>
       </c>
       <c r="E17">
-        <v>123165.8269715848</v>
+        <v>2736.319932775182</v>
       </c>
       <c r="F17">
-        <v>11630013.82291978</v>
+        <v>7399.984573827465</v>
       </c>
       <c r="G17">
-        <v>12115769.13996938</v>
+        <v>18191.79257103254</v>
       </c>
       <c r="H17">
-        <v>15169820933.59436</v>
+        <v>7487446.774502777</v>
       </c>
       <c r="I17">
-        <v>0.01037370106212738</v>
+        <v>0.2138436824677305</v>
       </c>
     </row>
     <row r="18">
@@ -1132,26 +1129,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18">
-        <v>902153.77169838</v>
+        <v>4564.92105844</v>
       </c>
       <c r="E18">
-        <v>27118.1658947676</v>
+        <v>1449.813350093438</v>
       </c>
       <c r="F18">
-        <v>848677.9269940883</v>
+        <v>1705.952134779688</v>
       </c>
       <c r="G18">
-        <v>955629.6164026717</v>
+        <v>7423.889982100311</v>
       </c>
       <c r="H18">
-        <v>735394921.4961369</v>
+        <v>2101958.750109158</v>
       </c>
       <c r="I18">
-        <v>0.0300593609930992</v>
+        <v>0.3175987780583641</v>
       </c>
     </row>
     <row r="19">
@@ -1165,26 +1162,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19">
-        <v>861237.60620974</v>
+        <v>4626.15436919</v>
       </c>
       <c r="E19">
-        <v>28821.08676366372</v>
+        <v>1101.053195196235</v>
       </c>
       <c r="F19">
-        <v>804403.6755536859</v>
+        <v>2454.925315353483</v>
       </c>
       <c r="G19">
-        <v>918071.5368657942</v>
+        <v>6797.383423026517</v>
       </c>
       <c r="H19">
-        <v>830655042.2386321</v>
+        <v>1212318.138651838</v>
       </c>
       <c r="I19">
-        <v>0.03346473325811184</v>
+        <v>0.2380061509683301</v>
       </c>
     </row>
     <row r="20">
@@ -1198,31 +1195,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D20">
-        <v>839717.05503851</v>
+        <v>7314.89719783</v>
       </c>
       <c r="E20">
-        <v>24411.83569268864</v>
+        <v>1723.536879285794</v>
       </c>
       <c r="F20">
-        <v>791577.9758871142</v>
+        <v>3916.157369463136</v>
       </c>
       <c r="G20">
-        <v>887856.1341899058</v>
+        <v>10713.63702619686</v>
       </c>
       <c r="H20">
-        <v>595937721.8868269</v>
+        <v>2970579.374258215</v>
       </c>
       <c r="I20">
-        <v>0.02907150158045688</v>
+        <v>0.2356201095754415</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1231,26 +1228,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21">
-        <v>848390.67970892</v>
+        <v>114762.28848842</v>
       </c>
       <c r="E21">
-        <v>26687.14673467267</v>
+        <v>8272.171292866991</v>
       </c>
       <c r="F21">
-        <v>795764.7860580754</v>
+        <v>98449.92617227946</v>
       </c>
       <c r="G21">
-        <v>901016.5733597645</v>
+        <v>131074.6508045605</v>
       </c>
       <c r="H21">
-        <v>712203800.83795</v>
+        <v>68428817.89853275</v>
       </c>
       <c r="I21">
-        <v>0.0314561998062366</v>
+        <v>0.07208091962806831</v>
       </c>
     </row>
     <row r="22">
@@ -1264,26 +1261,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22">
-        <v>7139566.90514015</v>
+        <v>117369.16279278</v>
       </c>
       <c r="E22">
-        <v>78794.79740881796</v>
+        <v>8032.814493380962</v>
       </c>
       <c r="F22">
-        <v>6984186.988736841</v>
+        <v>101528.8016837971</v>
       </c>
       <c r="G22">
-        <v>7294946.82154346</v>
+        <v>133209.5239017629</v>
       </c>
       <c r="H22">
-        <v>6208620098.696666</v>
+        <v>64526108.68507124</v>
       </c>
       <c r="I22">
-        <v>0.01103635534980272</v>
+        <v>0.06844058781916354</v>
       </c>
     </row>
     <row r="23">
@@ -1297,26 +1294,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D23">
-        <v>7513098.97724708</v>
+        <v>89764.76988809</v>
       </c>
       <c r="E23">
-        <v>74544.82320533195</v>
+        <v>6816.106300807926</v>
       </c>
       <c r="F23">
-        <v>7366099.825287236</v>
+        <v>76323.70446189621</v>
       </c>
       <c r="G23">
-        <v>7660098.129206924</v>
+        <v>103205.8353142838</v>
       </c>
       <c r="H23">
-        <v>5556930666.714197</v>
+        <v>46459305.10391352</v>
       </c>
       <c r="I23">
-        <v>0.009921980720749984</v>
+        <v>0.07593297804144751</v>
       </c>
     </row>
     <row r="24">
@@ -1330,31 +1327,31 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D24">
-        <v>7750992.66437083</v>
+        <v>111088.66577699</v>
       </c>
       <c r="E24">
-        <v>73430.26504907137</v>
+        <v>9185.701120700283</v>
       </c>
       <c r="F24">
-        <v>7606191.372661173</v>
+        <v>92974.86233848442</v>
       </c>
       <c r="G24">
-        <v>7895793.956080487</v>
+        <v>129202.4692154956</v>
       </c>
       <c r="H24">
-        <v>5392003825.176872</v>
+        <v>84377105.07883444</v>
       </c>
       <c r="I24">
-        <v>0.009473659469013561</v>
+        <v>0.0826880137271658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1363,26 +1360,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25">
-        <v>7931662.89094704</v>
+        <v>384764.67097681</v>
       </c>
       <c r="E25">
-        <v>83140.96084950463</v>
+        <v>15373.97755840413</v>
       </c>
       <c r="F25">
-        <v>7767712.529104481</v>
+        <v>354447.8553193354</v>
       </c>
       <c r="G25">
-        <v>8095613.2527896</v>
+        <v>415081.4866342845</v>
       </c>
       <c r="H25">
-        <v>6912419370.978861</v>
+        <v>236359185.9663137</v>
       </c>
       <c r="I25">
-        <v>0.01048216017153215</v>
+        <v>0.03995683262544322</v>
       </c>
     </row>
     <row r="26">
@@ -1396,26 +1393,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26">
-        <v>16533692.20627669</v>
+        <v>377051.15078387</v>
       </c>
       <c r="E26">
-        <v>116248.1739820184</v>
+        <v>16313.70277191136</v>
       </c>
       <c r="F26">
-        <v>16304455.85883553</v>
+        <v>344881.2378418215</v>
       </c>
       <c r="G26">
-        <v>16762928.55371785</v>
+        <v>409221.0637259186</v>
       </c>
       <c r="H26">
-        <v>13513637954.15363</v>
+        <v>266136898.1302683</v>
       </c>
       <c r="I26">
-        <v>0.007030986940587119</v>
+        <v>0.04326655080615987</v>
       </c>
     </row>
     <row r="27">
@@ -1429,26 +1426,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D27">
-        <v>16683307.05016482</v>
+        <v>377629.87140114</v>
       </c>
       <c r="E27">
-        <v>122405.8048374983</v>
+        <v>14871.89273669494</v>
       </c>
       <c r="F27">
-        <v>16441928.12226111</v>
+        <v>348303.1451936043</v>
       </c>
       <c r="G27">
-        <v>16924685.97806853</v>
+        <v>406956.5976086757</v>
       </c>
       <c r="H27">
-        <v>14983181057.91573</v>
+        <v>221173193.5717597</v>
       </c>
       <c r="I27">
-        <v>0.007337022837824533</v>
+        <v>0.03938219368482417</v>
       </c>
     </row>
     <row r="28">
@@ -1462,31 +1459,31 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28">
-        <v>16639022.10796882</v>
+        <v>349174.16437029</v>
       </c>
       <c r="E28">
-        <v>125241.8840318493</v>
+        <v>15428.44103683628</v>
       </c>
       <c r="F28">
-        <v>16392050.5551378</v>
+        <v>318749.9491000985</v>
       </c>
       <c r="G28">
-        <v>16885993.66079985</v>
+        <v>379598.3796404816</v>
       </c>
       <c r="H28">
-        <v>15685529515.8472</v>
+        <v>238036792.8271336</v>
       </c>
       <c r="I28">
-        <v>0.007526997873983715</v>
+        <v>0.04418551717496149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1495,26 +1492,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29">
-        <v>17060851.82576592</v>
+        <v>99686.04351165</v>
       </c>
       <c r="E29">
-        <v>110099.0704113085</v>
+        <v>8027.738569638934</v>
       </c>
       <c r="F29">
-        <v>16843741.24335231</v>
+        <v>83855.69190370831</v>
       </c>
       <c r="G29">
-        <v>17277962.40817953</v>
+        <v>115516.3951195917</v>
       </c>
       <c r="H29">
-        <v>12121805305.43426</v>
+        <v>64444586.54246856</v>
       </c>
       <c r="I29">
-        <v>0.006453316137769442</v>
+        <v>0.08053021553313787</v>
       </c>
     </row>
     <row r="30">
@@ -1528,26 +1525,26 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30">
-        <v>4056621.49587391</v>
+        <v>72708.24484087</v>
       </c>
       <c r="E30">
-        <v>58132.63413238846</v>
+        <v>5837.093753803084</v>
       </c>
       <c r="F30">
-        <v>3941986.467561954</v>
+        <v>61197.74961364699</v>
       </c>
       <c r="G30">
-        <v>4171256.524185866</v>
+        <v>84218.74006809301</v>
       </c>
       <c r="H30">
-        <v>3379403151.170135</v>
+        <v>34071663.49068698</v>
       </c>
       <c r="I30">
-        <v>0.01433030766895965</v>
+        <v>0.0802810433201655</v>
       </c>
     </row>
     <row r="31">
@@ -1561,26 +1558,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D31">
-        <v>4110675.12751107</v>
+        <v>93409.84281786</v>
       </c>
       <c r="E31">
-        <v>57537.31122170117</v>
+        <v>8519.718305279022</v>
       </c>
       <c r="F31">
-        <v>3997214.050108787</v>
+        <v>76609.3285505836</v>
       </c>
       <c r="G31">
-        <v>4224136.204913354</v>
+        <v>110210.3570851364</v>
       </c>
       <c r="H31">
-        <v>3310542182.6229</v>
+        <v>72585600.00130646</v>
       </c>
       <c r="I31">
-        <v>0.01399704657675997</v>
+        <v>0.09120792893198242</v>
       </c>
     </row>
     <row r="32">
@@ -1594,31 +1591,31 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32">
-        <v>4149950.92052869</v>
+        <v>87175.97112479999</v>
       </c>
       <c r="E32">
-        <v>57915.17579266104</v>
+        <v>7990.752566617167</v>
       </c>
       <c r="F32">
-        <v>4035744.710612861</v>
+        <v>71418.55430756279</v>
       </c>
       <c r="G32">
-        <v>4264157.130444518</v>
+        <v>102933.3879420372</v>
       </c>
       <c r="H32">
-        <v>3354167587.094832</v>
+        <v>63852126.58089884</v>
       </c>
       <c r="I32">
-        <v>0.01395562909097798</v>
+        <v>0.09166232923494146</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1627,26 +1624,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D33">
-        <v>4309614.97021807</v>
+        <v>47273.97047816</v>
       </c>
       <c r="E33">
-        <v>66134.25178740434</v>
+        <v>6712.369903536555</v>
       </c>
       <c r="F33">
-        <v>4179201.099606705</v>
+        <v>34037.46871944259</v>
       </c>
       <c r="G33">
-        <v>4440028.840829435</v>
+        <v>60510.47223687741</v>
       </c>
       <c r="H33">
-        <v>4373739259.479795</v>
+        <v>45055909.72190335</v>
       </c>
       <c r="I33">
-        <v>0.01534574486222789</v>
+        <v>0.1419887061662737</v>
       </c>
     </row>
     <row r="34">
@@ -1660,26 +1657,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D34">
-        <v>1178041.1247454</v>
+        <v>39165.88070876</v>
       </c>
       <c r="E34">
-        <v>31033.87383334553</v>
+        <v>4461.869069300767</v>
       </c>
       <c r="F34">
-        <v>1116843.674146251</v>
+        <v>30367.26879795788</v>
       </c>
       <c r="G34">
-        <v>1239238.575344549</v>
+        <v>47964.49261956212</v>
       </c>
       <c r="H34">
-        <v>963101325.1040086</v>
+        <v>19908275.59158289</v>
       </c>
       <c r="I34">
-        <v>0.02634362517696708</v>
+        <v>0.113922347424778</v>
       </c>
     </row>
     <row r="35">
@@ -1693,26 +1690,26 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D35">
-        <v>1245217.40467718</v>
+        <v>45877.68705079</v>
       </c>
       <c r="E35">
-        <v>40124.41946899268</v>
+        <v>7418.525232928274</v>
       </c>
       <c r="F35">
-        <v>1166093.793120997</v>
+        <v>31248.67766902034</v>
       </c>
       <c r="G35">
-        <v>1324341.016233363</v>
+        <v>60506.69643255966</v>
       </c>
       <c r="H35">
-        <v>1609969037.723679</v>
+        <v>55034516.6315935</v>
       </c>
       <c r="I35">
-        <v>0.03222282255153255</v>
+        <v>0.1617022502619937</v>
       </c>
     </row>
     <row r="36">
@@ -1726,31 +1723,31 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D36">
-        <v>1285524.94943146</v>
+        <v>24937.56659537</v>
       </c>
       <c r="E36">
-        <v>36583.95874466405</v>
+        <v>3584.35289802929</v>
       </c>
       <c r="F36">
-        <v>1213382.972570284</v>
+        <v>17869.37844119341</v>
       </c>
       <c r="G36">
-        <v>1357666.926292636</v>
+        <v>32005.75474954659</v>
       </c>
       <c r="H36">
-        <v>1338386037.431281</v>
+        <v>12847585.69761097</v>
       </c>
       <c r="I36">
-        <v>0.02845838096012355</v>
+        <v>0.1437330657071719</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1759,26 +1756,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37">
-        <v>1242007.3933125</v>
+        <v>15830.88079305</v>
       </c>
       <c r="E37">
-        <v>35955.17691999476</v>
+        <v>3291.399474183637</v>
       </c>
       <c r="F37">
-        <v>1171105.346885387</v>
+        <v>9340.384060186803</v>
       </c>
       <c r="G37">
-        <v>1312909.439739613</v>
+        <v>22321.3775259132</v>
       </c>
       <c r="H37">
-        <v>1292774747.348124</v>
+        <v>10833310.49865632</v>
       </c>
       <c r="I37">
-        <v>0.02894924548242855</v>
+        <v>0.2079100662313503</v>
       </c>
     </row>
     <row r="38">
@@ -1792,26 +1789,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D38">
-        <v>1211557.96034792</v>
+        <v>15196.09616751</v>
       </c>
       <c r="E38">
-        <v>39202.22218869247</v>
+        <v>3461.03999863174</v>
       </c>
       <c r="F38">
-        <v>1134252.881753717</v>
+        <v>8371.075692291066</v>
       </c>
       <c r="G38">
-        <v>1288863.038942123</v>
+        <v>22021.11664272894</v>
       </c>
       <c r="H38">
-        <v>1536814224.531613</v>
+        <v>11978797.8721288</v>
       </c>
       <c r="I38">
-        <v>0.03235686898333355</v>
+        <v>0.2277584953714371</v>
       </c>
     </row>
     <row r="39">
@@ -1825,26 +1822,26 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D39">
-        <v>1259577.26703369</v>
+        <v>15771.19137265</v>
       </c>
       <c r="E39">
-        <v>36459.70778282049</v>
+        <v>2911.133026678714</v>
       </c>
       <c r="F39">
-        <v>1187680.307669851</v>
+        <v>10030.5635495035</v>
       </c>
       <c r="G39">
-        <v>1331474.226397529</v>
+        <v>21511.8191957965</v>
       </c>
       <c r="H39">
-        <v>1329310291.608661</v>
+        <v>8474695.499019567</v>
       </c>
       <c r="I39">
-        <v>0.02894598746505108</v>
+        <v>0.1845854861495833</v>
       </c>
     </row>
     <row r="40">
@@ -1858,31 +1855,31 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D40">
-        <v>1247646.01201838</v>
+        <v>16040.96893791</v>
       </c>
       <c r="E40">
-        <v>35784.73032843646</v>
+        <v>3105.425472054325</v>
       </c>
       <c r="F40">
-        <v>1177080.078862936</v>
+        <v>9917.204855606389</v>
       </c>
       <c r="G40">
-        <v>1318211.945173824</v>
+        <v>22164.73302021361</v>
       </c>
       <c r="H40">
-        <v>1280546924.67892</v>
+        <v>9643667.362483827</v>
       </c>
       <c r="I40">
-        <v>0.0286817975481248</v>
+        <v>0.1935933847933088</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1891,26 +1888,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D41">
-        <v>1322283.38039696</v>
+        <v>14869.13958536</v>
       </c>
       <c r="E41">
-        <v>41389.46497664465</v>
+        <v>2938.582837394283</v>
       </c>
       <c r="F41">
-        <v>1240665.154073187</v>
+        <v>9074.381928334462</v>
       </c>
       <c r="G41">
-        <v>1403901.606720733</v>
+        <v>20663.89724238554</v>
       </c>
       <c r="H41">
-        <v>1713087811.052894</v>
+        <v>8635269.092228236</v>
       </c>
       <c r="I41">
-        <v>0.0313015088824751</v>
+        <v>0.1976296490139605</v>
       </c>
     </row>
     <row r="42">
@@ -1924,26 +1921,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D42">
-        <v>496691.93915107</v>
+        <v>13774.45220014</v>
       </c>
       <c r="E42">
-        <v>18529.9406300977</v>
+        <v>2928.906574586921</v>
       </c>
       <c r="F42">
-        <v>460151.7014609524</v>
+        <v>7998.775712881339</v>
       </c>
       <c r="G42">
-        <v>533232.1768411876</v>
+        <v>19550.12868739866</v>
       </c>
       <c r="H42">
-        <v>343358699.7549456</v>
+        <v>8578493.722658493</v>
       </c>
       <c r="I42">
-        <v>0.03730670697367967</v>
+        <v>0.2126332526354226</v>
       </c>
     </row>
     <row r="43">
@@ -1957,26 +1954,26 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D43">
-        <v>541701.3823672601</v>
+        <v>21681.82750599</v>
       </c>
       <c r="E43">
-        <v>21785.66632798563</v>
+        <v>3664.946000658172</v>
       </c>
       <c r="F43">
-        <v>498740.9950809038</v>
+        <v>14454.71325566283</v>
       </c>
       <c r="G43">
-        <v>584661.7696536164</v>
+        <v>28908.94175631717</v>
       </c>
       <c r="H43">
-        <v>474615257.3543267</v>
+        <v>13431829.18774033</v>
       </c>
       <c r="I43">
-        <v>0.04021711414650865</v>
+        <v>0.1690330761853752</v>
       </c>
     </row>
     <row r="44">
@@ -1990,31 +1987,31 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D44">
-        <v>531507.29208435</v>
+        <v>19837.17419607</v>
       </c>
       <c r="E44">
-        <v>22111.84185860685</v>
+        <v>4692.845108844193</v>
       </c>
       <c r="F44">
-        <v>487903.7008258104</v>
+        <v>10583.08757252487</v>
       </c>
       <c r="G44">
-        <v>575110.8833428896</v>
+        <v>29091.26081961513</v>
       </c>
       <c r="H44">
-        <v>488933550.3800379</v>
+        <v>22022795.21560286</v>
       </c>
       <c r="I44">
-        <v>0.04160214203627089</v>
+        <v>0.236568226021522</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2023,26 +2020,26 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D45">
-        <v>557484.81997161</v>
+        <v>1175222.06382233</v>
       </c>
       <c r="E45">
-        <v>21167.13356225583</v>
+        <v>31265.86637641825</v>
       </c>
       <c r="F45">
-        <v>515744.1524204687</v>
+        <v>1113567.134009651</v>
       </c>
       <c r="G45">
-        <v>599225.4875227512</v>
+        <v>1236876.993635009</v>
       </c>
       <c r="H45">
-        <v>448047543.242377</v>
+        <v>977554400.268041</v>
       </c>
       <c r="I45">
-        <v>0.03796898642609455</v>
+        <v>0.02660422003542729</v>
       </c>
     </row>
     <row r="46">
@@ -2056,26 +2053,26 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D46">
-        <v>24154977.23611554</v>
+        <v>1209222.10039264</v>
       </c>
       <c r="E46">
-        <v>136970.0951680484</v>
+        <v>31495.99768246887</v>
       </c>
       <c r="F46">
-        <v>23884878.16058212</v>
+        <v>1147113.361644958</v>
       </c>
       <c r="G46">
-        <v>24425076.31164896</v>
+        <v>1271330.839140323</v>
       </c>
       <c r="H46">
-        <v>18760806970.34423</v>
+        <v>991997870.0140842</v>
       </c>
       <c r="I46">
-        <v>0.005670470885944627</v>
+        <v>0.02604649524040453</v>
       </c>
     </row>
     <row r="47">
@@ -2089,26 +2086,26 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D47">
-        <v>24119417.79546675</v>
+        <v>1192095.4819927</v>
       </c>
       <c r="E47">
-        <v>130353.3420235493</v>
+        <v>32851.2451596359</v>
       </c>
       <c r="F47">
-        <v>23862366.66959833</v>
+        <v>1127314.254113337</v>
       </c>
       <c r="G47">
-        <v>24376468.92133518</v>
+        <v>1256876.709872063</v>
       </c>
       <c r="H47">
-        <v>16991993776.70844</v>
+        <v>1079204308.538501</v>
       </c>
       <c r="I47">
-        <v>0.00540449786677891</v>
+        <v>0.02755756200394447</v>
       </c>
     </row>
     <row r="48">
@@ -2122,31 +2119,31 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D48">
-        <v>24588061.25678883</v>
+        <v>1171633.7419564</v>
       </c>
       <c r="E48">
-        <v>132132.1148714358</v>
+        <v>35764.7604816117</v>
       </c>
       <c r="F48">
-        <v>24327502.46816228</v>
+        <v>1101107.188471089</v>
       </c>
       <c r="G48">
-        <v>24848620.04541538</v>
+        <v>1242160.295441711</v>
       </c>
       <c r="H48">
-        <v>17458895780.3983</v>
+        <v>1279118092.307054</v>
       </c>
       <c r="I48">
-        <v>0.005373832181866463</v>
+        <v>0.03052554667970856</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2155,26 +2152,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D49">
-        <v>24411648.19947117</v>
+        <v>581348.38836172</v>
       </c>
       <c r="E49">
-        <v>139444.2659120008</v>
+        <v>19601.95298641072</v>
       </c>
       <c r="F49">
-        <v>24136670.16674762</v>
+        <v>542694.1888900523</v>
       </c>
       <c r="G49">
-        <v>24686626.23219472</v>
+        <v>620002.5878333878</v>
       </c>
       <c r="H49">
-        <v>19444703295.73679</v>
+        <v>384236560.8814563</v>
       </c>
       <c r="I49">
-        <v>0.005712202009982332</v>
+        <v>0.03371808261419695</v>
       </c>
     </row>
     <row r="50">
@@ -2188,26 +2185,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D50">
-        <v>9797692.8769201</v>
+        <v>608936.78256448</v>
       </c>
       <c r="E50">
-        <v>100375.4605597441</v>
+        <v>19671.64282066803</v>
       </c>
       <c r="F50">
-        <v>9599756.830587029</v>
+        <v>570145.1577680807</v>
       </c>
       <c r="G50">
-        <v>9995628.923253171</v>
+        <v>647728.4073608792</v>
       </c>
       <c r="H50">
-        <v>10075233082.58075</v>
+        <v>386973531.2639402</v>
       </c>
       <c r="I50">
-        <v>0.01024480577424439</v>
+        <v>0.03230490156600946</v>
       </c>
     </row>
     <row r="51">
@@ -2221,26 +2218,26 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D51">
-        <v>10164564.90314736</v>
+        <v>632960.69181039</v>
       </c>
       <c r="E51">
-        <v>93781.23794468706</v>
+        <v>21704.48504917483</v>
       </c>
       <c r="F51">
-        <v>9979632.377254304</v>
+        <v>590160.3904780553</v>
       </c>
       <c r="G51">
-        <v>10349497.42904042</v>
+        <v>675760.9931427246</v>
       </c>
       <c r="H51">
-        <v>8794920590.438013</v>
+        <v>471084671.2498538</v>
       </c>
       <c r="I51">
-        <v>0.009226291419089528</v>
+        <v>0.03429041539229839</v>
       </c>
     </row>
     <row r="52">
@@ -2254,179 +2251,26 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D52">
-        <v>10285773.32092055</v>
+        <v>600539.99909607</v>
       </c>
       <c r="E52">
-        <v>96297.92675548281</v>
+        <v>19211.89490843401</v>
       </c>
       <c r="F52">
-        <v>10095877.9940572</v>
+        <v>562654.9772039066</v>
       </c>
       <c r="G52">
-        <v>10475668.6477839</v>
+        <v>638425.0209882333</v>
       </c>
       <c r="H52">
-        <v>9273290697.404333</v>
+        <v>369096905.9727125</v>
       </c>
       <c r="I52">
-        <v>0.009362244699639598</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>10051834.04419268</v>
-      </c>
-      <c r="E53">
-        <v>92197.95966337259</v>
-      </c>
-      <c r="F53">
-        <v>9870023.674267832</v>
-      </c>
-      <c r="G53">
-        <v>10233644.41411753</v>
-      </c>
-      <c r="H53">
-        <v>8500463766.088879</v>
-      </c>
-      <c r="I53">
-        <v>0.009172252472337503</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>108943466.7066704</v>
-      </c>
-      <c r="E54">
-        <v>176008.0560243128</v>
-      </c>
-      <c r="F54">
-        <v>108596386.4687522</v>
-      </c>
-      <c r="G54">
-        <v>109290546.9445885</v>
-      </c>
-      <c r="H54">
-        <v>30978835785.45763</v>
-      </c>
-      <c r="I54">
-        <v>0.001615590740270946</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>107743767.1838471</v>
-      </c>
-      <c r="E55">
-        <v>158874.0953204902</v>
-      </c>
-      <c r="F55">
-        <v>107430474.3718678</v>
-      </c>
-      <c r="G55">
-        <v>108057059.9958264</v>
-      </c>
-      <c r="H55">
-        <v>25240978163.90421</v>
-      </c>
-      <c r="I55">
-        <v>0.001474554858003039</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>107513073.865021</v>
-      </c>
-      <c r="E56">
-        <v>163351.8645104954</v>
-      </c>
-      <c r="F56">
-        <v>107190951.0867838</v>
-      </c>
-      <c r="G56">
-        <v>107835196.6432582</v>
-      </c>
-      <c r="H56">
-        <v>26683831639.05523</v>
-      </c>
-      <c r="I56">
-        <v>0.001519367446563551</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>107666428.0466685</v>
-      </c>
-      <c r="E57">
-        <v>159507.3303469438</v>
-      </c>
-      <c r="F57">
-        <v>107351886.5227347</v>
-      </c>
-      <c r="G57">
-        <v>107980969.5706022</v>
-      </c>
-      <c r="H57">
-        <v>25442588434.40906</v>
-      </c>
-      <c r="I57">
-        <v>0.001481495515740568</v>
+        <v>0.03199103296591678</v>
       </c>
     </row>
   </sheetData>
@@ -2435,3798 +2279,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaH</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>747052109.7853775</v>
-      </c>
-      <c r="E2">
-        <v>91401144.79383196</v>
-      </c>
-      <c r="F2">
-        <v>566813024.1570786</v>
-      </c>
-      <c r="G2">
-        <v>927291195.4136764</v>
-      </c>
-      <c r="H2">
-        <v>8354169269623035</v>
-      </c>
-      <c r="I2">
-        <v>0.1223490886333094</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>818152145.9233675</v>
-      </c>
-      <c r="E3">
-        <v>92279817.38085197</v>
-      </c>
-      <c r="F3">
-        <v>636180356.1368399</v>
-      </c>
-      <c r="G3">
-        <v>1000123935.709895</v>
-      </c>
-      <c r="H3">
-        <v>8515564695843389</v>
-      </c>
-      <c r="I3">
-        <v>0.1127905339375537</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>611080595.9312025</v>
-      </c>
-      <c r="E4">
-        <v>91720663.88197665</v>
-      </c>
-      <c r="F4">
-        <v>430211432.5460234</v>
-      </c>
-      <c r="G4">
-        <v>791949759.3163817</v>
-      </c>
-      <c r="H4">
-        <v>8412680182950536</v>
-      </c>
-      <c r="I4">
-        <v>0.1500958539555769</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>355446287.136365</v>
-      </c>
-      <c r="E5">
-        <v>57647042.70916174</v>
-      </c>
-      <c r="F5">
-        <v>241768824.0092733</v>
-      </c>
-      <c r="G5">
-        <v>469123750.2634567</v>
-      </c>
-      <c r="H5">
-        <v>3323181533111918</v>
-      </c>
-      <c r="I5">
-        <v>0.1621821490205798</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>75131656895630.27</v>
-      </c>
-      <c r="E6">
-        <v>769538043616.8014</v>
-      </c>
-      <c r="F6">
-        <v>73614161314469.42</v>
-      </c>
-      <c r="G6">
-        <v>76649152476791.11</v>
-      </c>
-      <c r="H6">
-        <v>5.921888005735741E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01024252725699649</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>77156482467009.53</v>
-      </c>
-      <c r="E7">
-        <v>860228232008.7887</v>
-      </c>
-      <c r="F7">
-        <v>75460149775349.69</v>
-      </c>
-      <c r="G7">
-        <v>78852815158669.38</v>
-      </c>
-      <c r="H7">
-        <v>7.399926111449664E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01114913749958215</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>75875164247882.95</v>
-      </c>
-      <c r="E8">
-        <v>890081424400.5935</v>
-      </c>
-      <c r="F8">
-        <v>74119962358119.28</v>
-      </c>
-      <c r="G8">
-        <v>77630366137646.63</v>
-      </c>
-      <c r="H8">
-        <v>7.922449420629895E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01173086652560924</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>74816466376865.94</v>
-      </c>
-      <c r="E9">
-        <v>807662258960.677</v>
-      </c>
-      <c r="F9">
-        <v>73223791499763.28</v>
-      </c>
-      <c r="G9">
-        <v>76409141253968.59</v>
-      </c>
-      <c r="H9">
-        <v>6.523183245494637E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.01079524733087922</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>145626668840.1302</v>
-      </c>
-      <c r="E10">
-        <v>6746362673.786254</v>
-      </c>
-      <c r="F10">
-        <v>132323134815.6616</v>
-      </c>
-      <c r="G10">
-        <v>158930202864.5987</v>
-      </c>
-      <c r="H10">
-        <v>4.551340932625641E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.04632642308938929</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>152452553465.6473</v>
-      </c>
-      <c r="E11">
-        <v>6808907425.726736</v>
-      </c>
-      <c r="F11">
-        <v>139025683908.2811</v>
-      </c>
-      <c r="G11">
-        <v>165879423023.0135</v>
-      </c>
-      <c r="H11">
-        <v>4.636122033211669E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.04466246888584265</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>149072293689.9265</v>
-      </c>
-      <c r="E12">
-        <v>6493763322.315433</v>
-      </c>
-      <c r="F12">
-        <v>136266874609.6645</v>
-      </c>
-      <c r="G12">
-        <v>161877712770.1884</v>
-      </c>
-      <c r="H12">
-        <v>4.216896208624916E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.04356116862213577</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>152808713934.6702</v>
-      </c>
-      <c r="E13">
-        <v>7619749044.276736</v>
-      </c>
-      <c r="F13">
-        <v>137782899941.2527</v>
-      </c>
-      <c r="G13">
-        <v>167834527928.0878</v>
-      </c>
-      <c r="H13">
-        <v>5.806057549775624E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.04986462386912294</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>54871789840686.91</v>
-      </c>
-      <c r="E14">
-        <v>551973173343.0811</v>
-      </c>
-      <c r="F14">
-        <v>53783322729261.62</v>
-      </c>
-      <c r="G14">
-        <v>55960256952112.21</v>
-      </c>
-      <c r="H14">
-        <v>3.04674384090431E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01005932510941712</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>56179564046284.65</v>
-      </c>
-      <c r="E15">
-        <v>555701739675.9779</v>
-      </c>
-      <c r="F15">
-        <v>55083744364078.52</v>
-      </c>
-      <c r="G15">
-        <v>57275383728490.77</v>
-      </c>
-      <c r="H15">
-        <v>3.088044234789083E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.009891528158142203</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>56255680813698.96</v>
-      </c>
-      <c r="E16">
-        <v>589640818442.2999</v>
-      </c>
-      <c r="F16">
-        <v>55092934743013.71</v>
-      </c>
-      <c r="G16">
-        <v>57418426884384.21</v>
-      </c>
-      <c r="H16">
-        <v>3.476762947733053E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.01048144489433883</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>56144434254323.28</v>
-      </c>
-      <c r="E17">
-        <v>582425577256.6143</v>
-      </c>
-      <c r="F17">
-        <v>54995916325712.5</v>
-      </c>
-      <c r="G17">
-        <v>57292952182934.06</v>
-      </c>
-      <c r="H17">
-        <v>3.392195530427003E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.01037370106212738</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>336595376528.209</v>
-      </c>
-      <c r="E18">
-        <v>10117841931.66958</v>
-      </c>
-      <c r="F18">
-        <v>316643431917.3484</v>
-      </c>
-      <c r="G18">
-        <v>356547321139.0696</v>
-      </c>
-      <c r="H18">
-        <v>1.023707253542512E+20</v>
-      </c>
-      <c r="I18">
-        <v>0.03005936099309919</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>321329473352.0664</v>
-      </c>
-      <c r="E19">
-        <v>10753205113.69646</v>
-      </c>
-      <c r="F19">
-        <v>300124620156.4313</v>
-      </c>
-      <c r="G19">
-        <v>342534326547.7015</v>
-      </c>
-      <c r="H19">
-        <v>1.156314202172277E+20</v>
-      </c>
-      <c r="I19">
-        <v>0.03346473325811184</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>313300112668.9781</v>
-      </c>
-      <c r="E20">
-        <v>9108104720.613518</v>
-      </c>
-      <c r="F20">
-        <v>295339325959.434</v>
-      </c>
-      <c r="G20">
-        <v>331260899378.5223</v>
-      </c>
-      <c r="H20">
-        <v>8.295757160166225E+19</v>
-      </c>
-      <c r="I20">
-        <v>0.02907150158045688</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>316536259380.7574</v>
-      </c>
-      <c r="E21">
-        <v>9957027820.999842</v>
-      </c>
-      <c r="F21">
-        <v>296901433207.84</v>
-      </c>
-      <c r="G21">
-        <v>336171085553.6749</v>
-      </c>
-      <c r="H21">
-        <v>9.914240302816485E+19</v>
-      </c>
-      <c r="I21">
-        <v>0.0314561998062366</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>24709377078967.88</v>
-      </c>
-      <c r="E22">
-        <v>272701465915.7601</v>
-      </c>
-      <c r="F22">
-        <v>24171621638628.25</v>
-      </c>
-      <c r="G22">
-        <v>25247132519307.51</v>
-      </c>
-      <c r="H22">
-        <v>7.436608951260447E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.01103635534980273</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>26002136842047.26</v>
-      </c>
-      <c r="E23">
-        <v>257992700445.0958</v>
-      </c>
-      <c r="F23">
-        <v>25493386448035.38</v>
-      </c>
-      <c r="G23">
-        <v>26510887236059.15</v>
-      </c>
-      <c r="H23">
-        <v>6.656023348295291E+22</v>
-      </c>
-      <c r="I23">
-        <v>0.009921980720749983</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>26825464769069.66</v>
-      </c>
-      <c r="E24">
-        <v>254135318320.1864</v>
-      </c>
-      <c r="F24">
-        <v>26324320964982.66</v>
-      </c>
-      <c r="G24">
-        <v>27326608573156.65</v>
-      </c>
-      <c r="H24">
-        <v>6.458476001770246E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.009473659469013559</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>27450747620918.85</v>
-      </c>
-      <c r="E25">
-        <v>287743133390.7766</v>
-      </c>
-      <c r="F25">
-        <v>26883330665965.4</v>
-      </c>
-      <c r="G25">
-        <v>28018164575872.29</v>
-      </c>
-      <c r="H25">
-        <v>8.279611081354226E+22</v>
-      </c>
-      <c r="I25">
-        <v>0.01048216017153216</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>126993140456424.4</v>
-      </c>
-      <c r="E26">
-        <v>892887112093.2684</v>
-      </c>
-      <c r="F26">
-        <v>125232405872454.1</v>
-      </c>
-      <c r="G26">
-        <v>128753875040394.8</v>
-      </c>
-      <c r="H26">
-        <v>7.972473949422569E+23</v>
-      </c>
-      <c r="I26">
-        <v>0.007030986940587139</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>128142312622399.5</v>
-      </c>
-      <c r="E27">
-        <v>940183074202.1947</v>
-      </c>
-      <c r="F27">
-        <v>126288312456431.7</v>
-      </c>
-      <c r="G27">
-        <v>129996312788367.2</v>
-      </c>
-      <c r="H27">
-        <v>8.839442130162895E+23</v>
-      </c>
-      <c r="I27">
-        <v>0.007337022837824525</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>127802165738434.5</v>
-      </c>
-      <c r="E28">
-        <v>961966629803.7111</v>
-      </c>
-      <c r="F28">
-        <v>125905209347441.2</v>
-      </c>
-      <c r="G28">
-        <v>129699122129427.7</v>
-      </c>
-      <c r="H28">
-        <v>9.2537979685591E+23</v>
-      </c>
-      <c r="I28">
-        <v>0.007526997873983718</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>131042184962970.7</v>
-      </c>
-      <c r="E29">
-        <v>845656646950.1047</v>
-      </c>
-      <c r="F29">
-        <v>129374586803827.4</v>
-      </c>
-      <c r="G29">
-        <v>132709783122113.9</v>
-      </c>
-      <c r="H29">
-        <v>7.151351645308941E+23</v>
-      </c>
-      <c r="I29">
-        <v>0.006453316137769426</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>7799804075247.627</v>
-      </c>
-      <c r="E30">
-        <v>111773592155.9038</v>
-      </c>
-      <c r="F30">
-        <v>7579391408721.267</v>
-      </c>
-      <c r="G30">
-        <v>8020216741773.987</v>
-      </c>
-      <c r="H30">
-        <v>1.249333590343431E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01433030766895965</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>7903734830619.87</v>
-      </c>
-      <c r="E31">
-        <v>110628944554.5464</v>
-      </c>
-      <c r="F31">
-        <v>7685579359421.868</v>
-      </c>
-      <c r="G31">
-        <v>8121890301817.872</v>
-      </c>
-      <c r="H31">
-        <v>1.22387633732529E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.01399704657675997</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>7979251733231.811</v>
-      </c>
-      <c r="E32">
-        <v>111355477612.5263</v>
-      </c>
-      <c r="F32">
-        <v>7759663570415.51</v>
-      </c>
-      <c r="G32">
-        <v>8198839896048.111</v>
-      </c>
-      <c r="H32">
-        <v>1.240004239431385E+22</v>
-      </c>
-      <c r="I32">
-        <v>0.01395562909097798</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>8286243230147.271</v>
-      </c>
-      <c r="E33">
-        <v>127158574476.2031</v>
-      </c>
-      <c r="F33">
-        <v>8035492047051.198</v>
-      </c>
-      <c r="G33">
-        <v>8536994413243.343</v>
-      </c>
-      <c r="H33">
-        <v>1.61693030628201E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.01534574486222789</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>489612740102.1841</v>
-      </c>
-      <c r="E34">
-        <v>12898174507.11974</v>
-      </c>
-      <c r="F34">
-        <v>464178100473.9683</v>
-      </c>
-      <c r="G34">
-        <v>515047379730.4</v>
-      </c>
-      <c r="H34">
-        <v>1.663629056161136E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.02634362517696709</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>517532276862.3109</v>
-      </c>
-      <c r="E35">
-        <v>16676350722.02486</v>
-      </c>
-      <c r="F35">
-        <v>484647237921.7765</v>
-      </c>
-      <c r="G35">
-        <v>550417315802.8452</v>
-      </c>
-      <c r="H35">
-        <v>2.781006734039792E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.03222282255153256</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>534284737382.9057</v>
-      </c>
-      <c r="E36">
-        <v>15204878597.6223</v>
-      </c>
-      <c r="F36">
-        <v>504301377527.771</v>
-      </c>
-      <c r="G36">
-        <v>564268097238.0404</v>
-      </c>
-      <c r="H36">
-        <v>2.311883331684325E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.02845838096012355</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>516198144778.968</v>
-      </c>
-      <c r="E37">
-        <v>14943546810.78054</v>
-      </c>
-      <c r="F37">
-        <v>486730119851.1169</v>
-      </c>
-      <c r="G37">
-        <v>545666169706.8191</v>
-      </c>
-      <c r="H37">
-        <v>2.233095912859894E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.02894924548242856</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>494769982057.0818</v>
-      </c>
-      <c r="E38">
-        <v>16009207486.30729</v>
-      </c>
-      <c r="F38">
-        <v>463200520586.1741</v>
-      </c>
-      <c r="G38">
-        <v>526339443527.9896</v>
-      </c>
-      <c r="H38">
-        <v>2.562947243396375E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.03235686898333356</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>514379866424.8832</v>
-      </c>
-      <c r="E39">
-        <v>14889233165.80931</v>
-      </c>
-      <c r="F39">
-        <v>485018945644.6753</v>
-      </c>
-      <c r="G39">
-        <v>543740787205.0911</v>
-      </c>
-      <c r="H39">
-        <v>2.216892642658359E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.02894598746505106</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>509507440158.0059</v>
-      </c>
-      <c r="E40">
-        <v>14613589247.87523</v>
-      </c>
-      <c r="F40">
-        <v>480690077205.6513</v>
-      </c>
-      <c r="G40">
-        <v>538324803110.3605</v>
-      </c>
-      <c r="H40">
-        <v>2.135569907056147E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.02868179754812479</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>539987475469.6085</v>
-      </c>
-      <c r="E41">
-        <v>16902422759.83725</v>
-      </c>
-      <c r="F41">
-        <v>506656632294.6377</v>
-      </c>
-      <c r="G41">
-        <v>573318318644.5793</v>
-      </c>
-      <c r="H41">
-        <v>2.856918951522643E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.03130150888247509</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>101028133807.2059</v>
-      </c>
-      <c r="E42">
-        <v>3769026984.043133</v>
-      </c>
-      <c r="F42">
-        <v>93595776380.56064</v>
-      </c>
-      <c r="G42">
-        <v>108460491233.8512</v>
-      </c>
-      <c r="H42">
-        <v>1.420556440644527E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.03730670697367967</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>110183144576.2654</v>
-      </c>
-      <c r="E43">
-        <v>4431248102.444933</v>
-      </c>
-      <c r="F43">
-        <v>101444915881.446</v>
-      </c>
-      <c r="G43">
-        <v>118921373271.0849</v>
-      </c>
-      <c r="H43">
-        <v>1.963595974542182E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.04021711414650866</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>108109646224.541</v>
-      </c>
-      <c r="E44">
-        <v>4497592857.724351</v>
-      </c>
-      <c r="F44">
-        <v>99240588555.37149</v>
-      </c>
-      <c r="G44">
-        <v>116978703893.7104</v>
-      </c>
-      <c r="H44">
-        <v>2.022834151385309E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.0416021420362709</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>113393527351.8654</v>
-      </c>
-      <c r="E45">
-        <v>4305437300.829958</v>
-      </c>
-      <c r="F45">
-        <v>104903392090.6282</v>
-      </c>
-      <c r="G45">
-        <v>121883662613.1026</v>
-      </c>
-      <c r="H45">
-        <v>1.853679035137795E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.03796898642609454</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>237221828469851.6</v>
-      </c>
-      <c r="E46">
-        <v>1345159471848.842</v>
-      </c>
-      <c r="F46">
-        <v>234569232446277.1</v>
-      </c>
-      <c r="G46">
-        <v>239874424493426.2</v>
-      </c>
-      <c r="H46">
-        <v>1.809454004704656E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.005670470885944619</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>236872605390582.5</v>
-      </c>
-      <c r="E47">
-        <v>1280177490531.769</v>
-      </c>
-      <c r="F47">
-        <v>234348151010324.6</v>
-      </c>
-      <c r="G47">
-        <v>239397059770840.4</v>
-      </c>
-      <c r="H47">
-        <v>1.638854407264216E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.005404497866778922</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>241475071280264.4</v>
-      </c>
-      <c r="E48">
-        <v>1297646509164.382</v>
-      </c>
-      <c r="F48">
-        <v>238916168754392.3</v>
-      </c>
-      <c r="G48">
-        <v>244033973806136.6</v>
-      </c>
-      <c r="H48">
-        <v>1.683886462746507E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.005373832181866461</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>239742549340219.7</v>
-      </c>
-      <c r="E49">
-        <v>1369457872219.489</v>
-      </c>
-      <c r="F49">
-        <v>237042037927019.3</v>
-      </c>
-      <c r="G49">
-        <v>242443060753420</v>
-      </c>
-      <c r="H49">
-        <v>1.875414863783931E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.005712202009982324</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>45695381427124.64</v>
-      </c>
-      <c r="E50">
-        <v>468140307500.9064</v>
-      </c>
-      <c r="F50">
-        <v>44772229084120.2</v>
-      </c>
-      <c r="G50">
-        <v>46618533770129.08</v>
-      </c>
-      <c r="H50">
-        <v>2.191553475070432E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.01024480577424439</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>47406432935269.75</v>
-      </c>
-      <c r="E51">
-        <v>437385565400.3222</v>
-      </c>
-      <c r="F51">
-        <v>46543927607217.33</v>
-      </c>
-      <c r="G51">
-        <v>48268938263322.17</v>
-      </c>
-      <c r="H51">
-        <v>1.913061328205595E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.009226291419089523</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>47971735905254.79</v>
-      </c>
-      <c r="E52">
-        <v>449123130211.4822</v>
-      </c>
-      <c r="F52">
-        <v>47086084609459.42</v>
-      </c>
-      <c r="G52">
-        <v>48857387201050.16</v>
-      </c>
-      <c r="H52">
-        <v>2.0171158609096E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.009362244699639598</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>46880668384037.89</v>
-      </c>
-      <c r="E53">
-        <v>430001326490.3264</v>
-      </c>
-      <c r="F53">
-        <v>46032724454228.36</v>
-      </c>
-      <c r="G53">
-        <v>47728612313847.42</v>
-      </c>
-      <c r="H53">
-        <v>1.849011407834402E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.009172252472337506</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>4111627533046844</v>
-      </c>
-      <c r="E54">
-        <v>6642707369833.544</v>
-      </c>
-      <c r="F54">
-        <v>4098528402777351</v>
-      </c>
-      <c r="G54">
-        <v>4124726663316336</v>
-      </c>
-      <c r="H54">
-        <v>4.412556120124088E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.001615590740270944</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>4066349759734337</v>
-      </c>
-      <c r="E55">
-        <v>5996055792555.767</v>
-      </c>
-      <c r="F55">
-        <v>4054525798274508</v>
-      </c>
-      <c r="G55">
-        <v>4078173721194166</v>
-      </c>
-      <c r="H55">
-        <v>3.595268506744156E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001474554858003042</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>4057643179798438</v>
-      </c>
-      <c r="E56">
-        <v>6165050957156.4</v>
-      </c>
-      <c r="F56">
-        <v>4045485967217828</v>
-      </c>
-      <c r="G56">
-        <v>4069800392379048</v>
-      </c>
-      <c r="H56">
-        <v>3.800785330433505E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.001519367446563561</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>4063430908926495</v>
-      </c>
-      <c r="E57">
-        <v>6019954670096.213</v>
-      </c>
-      <c r="F57">
-        <v>4051559819918700</v>
-      </c>
-      <c r="G57">
-        <v>4075301997934290</v>
-      </c>
-      <c r="H57">
-        <v>3.62398542300132E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.001481495515740566</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>704122918.1244713</v>
-      </c>
-      <c r="E2">
-        <v>86148797.31835541</v>
-      </c>
-      <c r="F2">
-        <v>534241233.4731226</v>
-      </c>
-      <c r="G2">
-        <v>874004602.77582</v>
-      </c>
-      <c r="H2">
-        <v>7421615279399081</v>
-      </c>
-      <c r="I2">
-        <v>0.1223490886333094</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>771137205.7069261</v>
-      </c>
-      <c r="E3">
-        <v>86976977.17079738</v>
-      </c>
-      <c r="F3">
-        <v>599622386.375737</v>
-      </c>
-      <c r="G3">
-        <v>942652025.0381153</v>
-      </c>
-      <c r="H3">
-        <v>7564994557769408</v>
-      </c>
-      <c r="I3">
-        <v>0.1127905339375537</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>575964978.5875503</v>
-      </c>
-      <c r="E4">
-        <v>86449955.30960391</v>
-      </c>
-      <c r="F4">
-        <v>405489423.4645053</v>
-      </c>
-      <c r="G4">
-        <v>746440533.7105953</v>
-      </c>
-      <c r="H4">
-        <v>7473594773032514</v>
-      </c>
-      <c r="I4">
-        <v>0.1500958539555769</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>335020641.3403598</v>
-      </c>
-      <c r="E5">
-        <v>54334367.57883244</v>
-      </c>
-      <c r="F5">
-        <v>227875629.615501</v>
-      </c>
-      <c r="G5">
-        <v>442165653.0652187</v>
-      </c>
-      <c r="H5">
-        <v>2952223500191678</v>
-      </c>
-      <c r="I5">
-        <v>0.1621821490205798</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>69726235815659.86</v>
-      </c>
-      <c r="E6">
-        <v>714172870869.6608</v>
-      </c>
-      <c r="F6">
-        <v>68317917949221.37</v>
-      </c>
-      <c r="G6">
-        <v>71134553682098.34</v>
-      </c>
-      <c r="H6">
-        <v>5.100428894862131E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01024252725699649</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>71605383316315.88</v>
-      </c>
-      <c r="E7">
-        <v>798338264303.8907</v>
-      </c>
-      <c r="F7">
-        <v>70031094951495.23</v>
-      </c>
-      <c r="G7">
-        <v>73179671681136.52</v>
-      </c>
-      <c r="H7">
-        <v>6.373439842517489E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01114913749958214</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>70416250798902.73</v>
-      </c>
-      <c r="E8">
-        <v>826043639355.7542</v>
-      </c>
-      <c r="F8">
-        <v>68787328638437.62</v>
-      </c>
-      <c r="G8">
-        <v>72045172959367.84</v>
-      </c>
-      <c r="H8">
-        <v>6.823480941200992E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01173086652560926</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>69433721989314.3</v>
-      </c>
-      <c r="E9">
-        <v>749554201978.1553</v>
-      </c>
-      <c r="F9">
-        <v>67955633675452.08</v>
-      </c>
-      <c r="G9">
-        <v>70911810303176.53</v>
-      </c>
-      <c r="H9">
-        <v>5.618315017031092E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.01079524733087922</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>134934078527.0731</v>
-      </c>
-      <c r="E10">
-        <v>6251013211.022064</v>
-      </c>
-      <c r="F10">
-        <v>122607352117.394</v>
-      </c>
-      <c r="G10">
-        <v>147260804936.7522</v>
-      </c>
-      <c r="H10">
-        <v>3.907516616437238E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.04632642308938927</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>141258774816.6476</v>
-      </c>
-      <c r="E11">
-        <v>6308965635.100778</v>
-      </c>
-      <c r="F11">
-        <v>128817768745.0512</v>
-      </c>
-      <c r="G11">
-        <v>153699780888.244</v>
-      </c>
-      <c r="H11">
-        <v>3.980304738488256E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.04466246888584265</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>138126709504.3541</v>
-      </c>
-      <c r="E12">
-        <v>6016960883.939933</v>
-      </c>
-      <c r="F12">
-        <v>126261524112.762</v>
-      </c>
-      <c r="G12">
-        <v>149991894895.9463</v>
-      </c>
-      <c r="H12">
-        <v>3.620381827886322E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.04356116862213576</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>141588784320.2512</v>
-      </c>
-      <c r="E13">
-        <v>7060271474.215699</v>
-      </c>
-      <c r="F13">
-        <v>127666235782.4776</v>
-      </c>
-      <c r="G13">
-        <v>155511332858.0248</v>
-      </c>
-      <c r="H13">
-        <v>4.984743328962392E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.04986462386912294</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>52249942406728.41</v>
-      </c>
-      <c r="E14">
-        <v>525599157617.6014</v>
-      </c>
-      <c r="F14">
-        <v>51213483708211.17</v>
-      </c>
-      <c r="G14">
-        <v>53286401105245.64</v>
-      </c>
-      <c r="H14">
-        <v>2.762544744883323E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01005932510941712</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>53495229413437.63</v>
-      </c>
-      <c r="E15">
-        <v>529149568069.295</v>
-      </c>
-      <c r="F15">
-        <v>52451769459795.39</v>
-      </c>
-      <c r="G15">
-        <v>54538689367079.86</v>
-      </c>
-      <c r="H15">
-        <v>2.799992653879215E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.009891528158142199</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>53567709220003.65</v>
-      </c>
-      <c r="E16">
-        <v>561466992305.4342</v>
-      </c>
-      <c r="F16">
-        <v>52460520710145.6</v>
-      </c>
-      <c r="G16">
-        <v>54674897729861.7</v>
-      </c>
-      <c r="H16">
-        <v>3.152451834485105E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.01048144489433883</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>53461778169873.84</v>
-      </c>
-      <c r="E17">
-        <v>554596504984.0385</v>
-      </c>
-      <c r="F17">
-        <v>52368137962451.41</v>
-      </c>
-      <c r="G17">
-        <v>54555418377296.26</v>
-      </c>
-      <c r="H17">
-        <v>3.075772833405106E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.01037370106212738</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>323695479746.6938</v>
-      </c>
-      <c r="E18">
-        <v>9730079277.540297</v>
-      </c>
-      <c r="F18">
-        <v>304508186239.2599</v>
-      </c>
-      <c r="G18">
-        <v>342882773254.1278</v>
-      </c>
-      <c r="H18">
-        <v>9.46744427472191E+19</v>
-      </c>
-      <c r="I18">
-        <v>0.03005936099309919</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>309014636820.8734</v>
-      </c>
-      <c r="E19">
-        <v>10341092394.06283</v>
-      </c>
-      <c r="F19">
-        <v>288622451999.6891</v>
-      </c>
-      <c r="G19">
-        <v>329406821642.0576</v>
-      </c>
-      <c r="H19">
-        <v>1.069381919025442E+20</v>
-      </c>
-      <c r="I19">
-        <v>0.03346473325811184</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>301292998498.9825</v>
-      </c>
-      <c r="E20">
-        <v>8759039882.043764</v>
-      </c>
-      <c r="F20">
-        <v>284020552482.2242</v>
-      </c>
-      <c r="G20">
-        <v>318565444515.7408</v>
-      </c>
-      <c r="H20">
-        <v>7.672077965523324E+19</v>
-      </c>
-      <c r="I20">
-        <v>0.02907150158045689</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>304405121051.5996</v>
-      </c>
-      <c r="E21">
-        <v>9575428309.840757</v>
-      </c>
-      <c r="F21">
-        <v>285522792531.9956</v>
-      </c>
-      <c r="G21">
-        <v>323287449571.2036</v>
-      </c>
-      <c r="H21">
-        <v>9.168882731689982E+19</v>
-      </c>
-      <c r="I21">
-        <v>0.0314561998062366</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>23160212433189.86</v>
-      </c>
-      <c r="E22">
-        <v>255604334389.6026</v>
-      </c>
-      <c r="F22">
-        <v>22656171793251.16</v>
-      </c>
-      <c r="G22">
-        <v>23664253073128.55</v>
-      </c>
-      <c r="H22">
-        <v>6.53335757587518E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.01103635534980273</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>24371922086667.26</v>
-      </c>
-      <c r="E23">
-        <v>241817741071.5333</v>
-      </c>
-      <c r="F23">
-        <v>23895068009645.07</v>
-      </c>
-      <c r="G23">
-        <v>24848776163689.45</v>
-      </c>
-      <c r="H23">
-        <v>5.84758198969391E+22</v>
-      </c>
-      <c r="I23">
-        <v>0.009921980720749984</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>25143631127776.48</v>
-      </c>
-      <c r="E24">
-        <v>238202199119.0437</v>
-      </c>
-      <c r="F24">
-        <v>24673906742368.52</v>
-      </c>
-      <c r="G24">
-        <v>25613355513184.44</v>
-      </c>
-      <c r="H24">
-        <v>5.674028766514853E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.009473659469013556</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>25729711611852.48</v>
-      </c>
-      <c r="E25">
-        <v>269702958282.7686</v>
-      </c>
-      <c r="F25">
-        <v>25197869098262.72</v>
-      </c>
-      <c r="G25">
-        <v>26261554125442.25</v>
-      </c>
-      <c r="H25">
-        <v>7.273968570647681E+22</v>
-      </c>
-      <c r="I25">
-        <v>0.01048216017153216</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>123039984250980.3</v>
-      </c>
-      <c r="E26">
-        <v>865092522438.6903</v>
-      </c>
-      <c r="F26">
-        <v>121334059389974.1</v>
-      </c>
-      <c r="G26">
-        <v>124745909111986.5</v>
-      </c>
-      <c r="H26">
-        <v>7.483850723793359E+23</v>
-      </c>
-      <c r="I26">
-        <v>0.007030986940587144</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>124153383956626.2</v>
-      </c>
-      <c r="E27">
-        <v>910916213482.9641</v>
-      </c>
-      <c r="F27">
-        <v>122357096768183.5</v>
-      </c>
-      <c r="G27">
-        <v>125949671145069</v>
-      </c>
-      <c r="H27">
-        <v>8.297683479861411E+23</v>
-      </c>
-      <c r="I27">
-        <v>0.007337022837824531</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>123823825469485.5</v>
-      </c>
-      <c r="E28">
-        <v>932021671057.3466</v>
-      </c>
-      <c r="F28">
-        <v>121985919235859.5</v>
-      </c>
-      <c r="G28">
-        <v>125661731703111.4</v>
-      </c>
-      <c r="H28">
-        <v>8.686643953205287E+23</v>
-      </c>
-      <c r="I28">
-        <v>0.007526997873983706</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>126962986473985.5</v>
-      </c>
-      <c r="E29">
-        <v>819332289511.9717</v>
-      </c>
-      <c r="F29">
-        <v>125347298803765.6</v>
-      </c>
-      <c r="G29">
-        <v>128578674144205.4</v>
-      </c>
-      <c r="H29">
-        <v>6.713054006369294E+23</v>
-      </c>
-      <c r="I29">
-        <v>0.006453316137769422</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>7445097148269.907</v>
-      </c>
-      <c r="E30">
-        <v>106690532760.0019</v>
-      </c>
-      <c r="F30">
-        <v>7234708053984.115</v>
-      </c>
-      <c r="G30">
-        <v>7655486242555.699</v>
-      </c>
-      <c r="H30">
-        <v>1.138286978061303E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01433030766895965</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>7544301508145.43</v>
-      </c>
-      <c r="E31">
-        <v>105597939598.632</v>
-      </c>
-      <c r="F31">
-        <v>7336066960094.406</v>
-      </c>
-      <c r="G31">
-        <v>7752536056196.453</v>
-      </c>
-      <c r="H31">
-        <v>1.115092484747633E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.01399704657675996</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>7616384174691.702</v>
-      </c>
-      <c r="E32">
-        <v>106291432556.3919</v>
-      </c>
-      <c r="F32">
-        <v>7406782088664.231</v>
-      </c>
-      <c r="G32">
-        <v>7825986260719.173</v>
-      </c>
-      <c r="H32">
-        <v>1.129786863489E+22</v>
-      </c>
-      <c r="I32">
-        <v>0.01395562909097798</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>7909414806766.373</v>
-      </c>
-      <c r="E33">
-        <v>121375861634.1643</v>
-      </c>
-      <c r="F33">
-        <v>7670066882102.688</v>
-      </c>
-      <c r="G33">
-        <v>8148762731430.059</v>
-      </c>
-      <c r="H33">
-        <v>1.473209978743581E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.0153457448622279</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>472813873663.3148</v>
-      </c>
-      <c r="E34">
-        <v>12455631466.25624</v>
-      </c>
-      <c r="F34">
-        <v>448251909680.6427</v>
-      </c>
-      <c r="G34">
-        <v>497375837645.9868</v>
-      </c>
-      <c r="H34">
-        <v>1.551427552231924E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.02634362517696709</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>499775476671.6143</v>
-      </c>
-      <c r="E35">
-        <v>16104176500.39703</v>
-      </c>
-      <c r="F35">
-        <v>468018740431.8711</v>
-      </c>
-      <c r="G35">
-        <v>531532212911.3574</v>
-      </c>
-      <c r="H35">
-        <v>2.593445007559398E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.03222282255153256</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>515953151604.0131</v>
-      </c>
-      <c r="E36">
-        <v>14683191345.92339</v>
-      </c>
-      <c r="F36">
-        <v>486998536338.9188</v>
-      </c>
-      <c r="G36">
-        <v>544907766869.1074</v>
-      </c>
-      <c r="H36">
-        <v>2.155961081009994E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.02845838096012355</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>498487119350.3317</v>
-      </c>
-      <c r="E37">
-        <v>14430825987.90142</v>
-      </c>
-      <c r="F37">
-        <v>470030157604.5313</v>
-      </c>
-      <c r="G37">
-        <v>526944081096.1322</v>
-      </c>
-      <c r="H37">
-        <v>2.08248738693091E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.02894924548242857</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>476605093557.5854</v>
-      </c>
-      <c r="E38">
-        <v>15421448569.03222</v>
-      </c>
-      <c r="F38">
-        <v>446194667130.0405</v>
-      </c>
-      <c r="G38">
-        <v>507015519985.1304</v>
-      </c>
-      <c r="H38">
-        <v>2.37821075967306E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.03235686898333355</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>495495024460.247</v>
-      </c>
-      <c r="E39">
-        <v>14342592767.02149</v>
-      </c>
-      <c r="F39">
-        <v>467212054791.7811</v>
-      </c>
-      <c r="G39">
-        <v>523777994128.7129</v>
-      </c>
-      <c r="H39">
-        <v>2.057099672806171E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.02894598746505108</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>490801483499.8144</v>
-      </c>
-      <c r="E40">
-        <v>14077068786.06099</v>
-      </c>
-      <c r="F40">
-        <v>463042115583.2593</v>
-      </c>
-      <c r="G40">
-        <v>518560851416.3694</v>
-      </c>
-      <c r="H40">
-        <v>1.981638656074926E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.0286817975481248</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>520162480747.3169</v>
-      </c>
-      <c r="E41">
-        <v>16281870511.44242</v>
-      </c>
-      <c r="F41">
-        <v>488055339639.6184</v>
-      </c>
-      <c r="G41">
-        <v>552269621855.0154</v>
-      </c>
-      <c r="H41">
-        <v>2.650993073513782E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.03130150888247509</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>97196652188.59459</v>
-      </c>
-      <c r="E42">
-        <v>3626087022.022559</v>
-      </c>
-      <c r="F42">
-        <v>90046166155.49086</v>
-      </c>
-      <c r="G42">
-        <v>104347138221.6983</v>
-      </c>
-      <c r="H42">
-        <v>1.314850709128043E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.03730670697367967</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>106004460112.6844</v>
-      </c>
-      <c r="E43">
-        <v>4263193472.390851</v>
-      </c>
-      <c r="F43">
-        <v>97597627845.39188</v>
-      </c>
-      <c r="G43">
-        <v>114411292379.9769</v>
-      </c>
-      <c r="H43">
-        <v>1.817481858303596E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.04021711414650866</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>104009598973.4023</v>
-      </c>
-      <c r="E44">
-        <v>4327022109.627057</v>
-      </c>
-      <c r="F44">
-        <v>95476899407.20119</v>
-      </c>
-      <c r="G44">
-        <v>112542298539.6034</v>
-      </c>
-      <c r="H44">
-        <v>1.872312033720139E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.04160214203627089</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>109093089450.6044</v>
-      </c>
-      <c r="E45">
-        <v>4142154032.530717</v>
-      </c>
-      <c r="F45">
-        <v>100924941698.8567</v>
-      </c>
-      <c r="G45">
-        <v>117261237202.3521</v>
-      </c>
-      <c r="H45">
-        <v>1.715744002921048E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.03796898642609454</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>227932476409227</v>
-      </c>
-      <c r="E46">
-        <v>1292484471439.781</v>
-      </c>
-      <c r="F46">
-        <v>225383753197427.5</v>
-      </c>
-      <c r="G46">
-        <v>230481199621026.4</v>
-      </c>
-      <c r="H46">
-        <v>1.670516108912969E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.005670470885944621</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>227596928530726.5</v>
-      </c>
-      <c r="E47">
-        <v>1230047114729.746</v>
-      </c>
-      <c r="F47">
-        <v>225171329073097.2</v>
-      </c>
-      <c r="G47">
-        <v>230022527988355.8</v>
-      </c>
-      <c r="H47">
-        <v>1.513015904454973E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.005404497866778922</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>232019166798557.4</v>
-      </c>
-      <c r="E48">
-        <v>1246832065351.93</v>
-      </c>
-      <c r="F48">
-        <v>229560468147703.7</v>
-      </c>
-      <c r="G48">
-        <v>234477865449411</v>
-      </c>
-      <c r="H48">
-        <v>1.55459019918976E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.005373832181866463</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>230354488557204.4</v>
-      </c>
-      <c r="E49">
-        <v>1315831372544.915</v>
-      </c>
-      <c r="F49">
-        <v>227759726270982.7</v>
-      </c>
-      <c r="G49">
-        <v>232949250843426.2</v>
-      </c>
-      <c r="H49">
-        <v>1.731412200973435E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.005712202009982331</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>42470705961315.44</v>
-      </c>
-      <c r="E50">
-        <v>435104133668.7194</v>
-      </c>
-      <c r="F50">
-        <v>41612699517496.41</v>
-      </c>
-      <c r="G50">
-        <v>43328712405134.46</v>
-      </c>
-      <c r="H50">
-        <v>1.893156071356068E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.01024480577424437</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>44061010346956.47</v>
-      </c>
-      <c r="E51">
-        <v>406519721680.539</v>
-      </c>
-      <c r="F51">
-        <v>43259371121421.13</v>
-      </c>
-      <c r="G51">
-        <v>44862649572491.8</v>
-      </c>
-      <c r="H51">
-        <v>1.652582841152229E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.009226291419089519</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>44586420475233.49</v>
-      </c>
-      <c r="E52">
-        <v>417428978770.157</v>
-      </c>
-      <c r="F52">
-        <v>43763268668787.35</v>
-      </c>
-      <c r="G52">
-        <v>45409572281679.63</v>
-      </c>
-      <c r="H52">
-        <v>1.742469523170962E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.009362244699639595</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>43572348452408.93</v>
-      </c>
-      <c r="E53">
-        <v>399656580818.1592</v>
-      </c>
-      <c r="F53">
-        <v>42784243042411.28</v>
-      </c>
-      <c r="G53">
-        <v>44360453862406.58</v>
-      </c>
-      <c r="H53">
-        <v>1.597253825912618E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.009172252472337508</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>3926485083760727</v>
-      </c>
-      <c r="E54">
-        <v>6343592943135.794</v>
-      </c>
-      <c r="F54">
-        <v>3913975794142441</v>
-      </c>
-      <c r="G54">
-        <v>3938994373379013</v>
-      </c>
-      <c r="H54">
-        <v>4.024117142820224E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.001615590740270939</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>3883246123006488</v>
-      </c>
-      <c r="E55">
-        <v>5726059435500.68</v>
-      </c>
-      <c r="F55">
-        <v>3871954582629878</v>
-      </c>
-      <c r="G55">
-        <v>3894537663383098</v>
-      </c>
-      <c r="H55">
-        <v>3.278775665888636E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001474554858003038</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>3874931591601562</v>
-      </c>
-      <c r="E56">
-        <v>5887444917940.11</v>
-      </c>
-      <c r="F56">
-        <v>3863321806066709</v>
-      </c>
-      <c r="G56">
-        <v>3886541377136416</v>
-      </c>
-      <c r="H56">
-        <v>3.466200766177883E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.001519367446563553</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>3880458705112577</v>
-      </c>
-      <c r="E57">
-        <v>5748882170640.736</v>
-      </c>
-      <c r="F57">
-        <v>3869122159294050</v>
-      </c>
-      <c r="G57">
-        <v>3891795250931104</v>
-      </c>
-      <c r="H57">
-        <v>3.304964621191094E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.001481495515740569</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
@@ -6252,32 +2304,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>freq</t>
+          <t>Qtd_horasHabituais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>freq_se</t>
+          <t>Qtd_horasHabituais_se</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>freq_low</t>
+          <t>Qtd_horasHabituais_low</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>freq_upp</t>
+          <t>Qtd_horasHabituais_upp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>freq_var</t>
+          <t>Qtd_horasHabituais_var</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>freq_cv</t>
+          <t>Qtd_horasHabituais_cv</t>
         </is>
       </c>
     </row>
@@ -6296,22 +2348,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>806.39503175</v>
+        <v>17347.98627925</v>
       </c>
       <c r="E2">
-        <v>493.4179981451271</v>
+        <v>11846.84904015965</v>
       </c>
       <c r="F2">
-        <v>-166.603818743882</v>
+        <v>-6013.485214255401</v>
       </c>
       <c r="G2">
-        <v>1779.393882243882</v>
+        <v>40709.4577727554</v>
       </c>
       <c r="H2">
-        <v>243461.3208935446</v>
+        <v>140347832.1803315</v>
       </c>
       <c r="I2">
-        <v>0.6118812476737795</v>
+        <v>0.682894766543003</v>
       </c>
     </row>
     <row r="3">
@@ -6329,19 +2381,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>136.05451265</v>
+        <v>4081.6353795</v>
       </c>
       <c r="E3">
-        <v>136.8317908784352</v>
+        <v>4104.953726353055</v>
       </c>
       <c r="F3">
-        <v>-133.7718328344174</v>
+        <v>-4013.154985032522</v>
       </c>
       <c r="G3">
-        <v>405.8808581344174</v>
+        <v>12176.42574403252</v>
       </c>
       <c r="H3">
-        <v>18722.93899499981</v>
+        <v>16850645.09549983</v>
       </c>
       <c r="I3">
         <v>1.005712991162849</v>
@@ -6362,22 +2414,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>2673.02401096</v>
+        <v>32026.76696128</v>
       </c>
       <c r="E4">
-        <v>1831.680642798338</v>
+        <v>23320.53836933928</v>
       </c>
       <c r="F4">
-        <v>-938.9706195854387</v>
+        <v>-13960.32129161268</v>
       </c>
       <c r="G4">
-        <v>6285.018641505439</v>
+        <v>78013.85521417268</v>
       </c>
       <c r="H4">
-        <v>3355053.977202133</v>
+        <v>543847509.8358257</v>
       </c>
       <c r="I4">
-        <v>0.6852466103140246</v>
+        <v>0.7281577437252269</v>
       </c>
     </row>
     <row r="5">
@@ -6395,22 +2447,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>505954.59238966</v>
+        <v>8346736.88476771</v>
       </c>
       <c r="E5">
-        <v>18979.10925815768</v>
+        <v>350808.3629438761</v>
       </c>
       <c r="F5">
-        <v>468528.613683967</v>
+        <v>7654958.03768229</v>
       </c>
       <c r="G5">
-        <v>543380.5710953531</v>
+        <v>9038515.731853131</v>
       </c>
       <c r="H5">
-        <v>360206588.2330865</v>
+        <v>123066507511.3623</v>
       </c>
       <c r="I5">
-        <v>0.03751148728291599</v>
+        <v>0.0420294023625065</v>
       </c>
     </row>
     <row r="6">
@@ -6428,22 +2480,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>482210.58499768</v>
+        <v>8243962.06887195</v>
       </c>
       <c r="E6">
-        <v>17597.79445670224</v>
+        <v>321905.7060481853</v>
       </c>
       <c r="F6">
-        <v>447508.4990543888</v>
+        <v>7609178.00519825</v>
       </c>
       <c r="G6">
-        <v>516912.6709409712</v>
+        <v>8878746.13254565</v>
       </c>
       <c r="H6">
-        <v>309682369.7403401</v>
+        <v>103623283586.3807</v>
       </c>
       <c r="I6">
-        <v>0.03649400283651365</v>
+        <v>0.03904745113562037</v>
       </c>
     </row>
     <row r="7">
@@ -6461,22 +2513,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>428173.94242297</v>
+        <v>7415921.63875685</v>
       </c>
       <c r="E7">
-        <v>17500.04350477215</v>
+        <v>329210.1183337619</v>
       </c>
       <c r="F7">
-        <v>393664.6171090442</v>
+        <v>6766733.591474694</v>
       </c>
       <c r="G7">
-        <v>462683.2677368958</v>
+        <v>8065109.686039005</v>
       </c>
       <c r="H7">
-        <v>306251522.6689178</v>
+        <v>108379302013.3295</v>
       </c>
       <c r="I7">
-        <v>0.04087134169291599</v>
+        <v>0.04439234047636839</v>
       </c>
     </row>
     <row r="8">
@@ -6494,22 +2546,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>401326.20723529</v>
+        <v>6689776.0060988</v>
       </c>
       <c r="E8">
-        <v>15624.71315862596</v>
+        <v>268489.9200724734</v>
       </c>
       <c r="F8">
-        <v>370514.9518700811</v>
+        <v>6160325.551146257</v>
       </c>
       <c r="G8">
-        <v>432137.4626004989</v>
+        <v>7219226.461051344</v>
       </c>
       <c r="H8">
-        <v>244131661.2893391</v>
+        <v>72086837180.52313</v>
       </c>
       <c r="I8">
-        <v>0.03893270082276357</v>
+        <v>0.04013436620713487</v>
       </c>
     </row>
     <row r="9">
@@ -6527,22 +2579,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>2750.3468639</v>
+        <v>68951.09141748</v>
       </c>
       <c r="E9">
-        <v>944.5645261328622</v>
+        <v>24890.6514766919</v>
       </c>
       <c r="F9">
-        <v>887.7066651242474</v>
+        <v>19867.80834732788</v>
       </c>
       <c r="G9">
-        <v>4612.987062675752</v>
+        <v>118034.3744876321</v>
       </c>
       <c r="H9">
-        <v>892202.1440285984</v>
+        <v>619544530.9341444</v>
       </c>
       <c r="I9">
-        <v>0.3434346912859809</v>
+        <v>0.3609899562863452</v>
       </c>
     </row>
     <row r="10">
@@ -6560,22 +2612,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>3827.47249227</v>
+        <v>84728.57521616</v>
       </c>
       <c r="E10">
-        <v>1320.658278658861</v>
+        <v>34200.51912034316</v>
       </c>
       <c r="F10">
-        <v>1223.191756948406</v>
+        <v>17286.63771999213</v>
       </c>
       <c r="G10">
-        <v>6431.753227591595</v>
+        <v>152170.5127123279</v>
       </c>
       <c r="H10">
-        <v>1744138.288990185</v>
+        <v>1169675508.100958</v>
       </c>
       <c r="I10">
-        <v>0.345047098660036</v>
+        <v>0.4036479904576539</v>
       </c>
     </row>
     <row r="11">
@@ -6593,22 +2645,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>3781.99499432</v>
+        <v>82326.13522353</v>
       </c>
       <c r="E11">
-        <v>1418.418492423571</v>
+        <v>34065.67051695136</v>
       </c>
       <c r="F11">
-        <v>984.9353656976355</v>
+        <v>15150.11331330381</v>
       </c>
       <c r="G11">
-        <v>6579.054622942364</v>
+        <v>149502.1571337562</v>
       </c>
       <c r="H11">
-        <v>2011911.019649155</v>
+        <v>1160469907.769489</v>
       </c>
       <c r="I11">
-        <v>0.375045047535448</v>
+        <v>0.4137892593215635</v>
       </c>
     </row>
     <row r="12">
@@ -6626,22 +2678,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>3781.7387581</v>
+        <v>99754.66299868</v>
       </c>
       <c r="E12">
-        <v>1502.597492340474</v>
+        <v>43777.90448743405</v>
       </c>
       <c r="F12">
-        <v>818.6817997029293</v>
+        <v>13426.53775105627</v>
       </c>
       <c r="G12">
-        <v>6744.79571649707</v>
+        <v>186082.7882463037</v>
       </c>
       <c r="H12">
-        <v>2257799.223987882</v>
+        <v>1916504921.310899</v>
       </c>
       <c r="I12">
-        <v>0.3973297968089687</v>
+        <v>0.4388557203387409</v>
       </c>
     </row>
     <row r="13">
@@ -6659,22 +2711,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>143969.07616857</v>
+        <v>2413671.49709746</v>
       </c>
       <c r="E13">
-        <v>9243.916988826459</v>
+        <v>182500.6871204981</v>
       </c>
       <c r="F13">
-        <v>125740.4735679337</v>
+        <v>2053788.072799752</v>
       </c>
       <c r="G13">
-        <v>162197.6787692063</v>
+        <v>2773554.921395168</v>
       </c>
       <c r="H13">
-        <v>85450001.29631442</v>
+        <v>33306500799.45395</v>
       </c>
       <c r="I13">
-        <v>0.06420765649703117</v>
+        <v>0.07561123679836414</v>
       </c>
     </row>
     <row r="14">
@@ -6692,22 +2744,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>152911.30712127</v>
+        <v>2585414.08673615</v>
       </c>
       <c r="E14">
-        <v>10849.42539414353</v>
+        <v>214152.7141602014</v>
       </c>
       <c r="F14">
-        <v>131516.7117139175</v>
+        <v>2163114.240578666</v>
       </c>
       <c r="G14">
-        <v>174305.9025286225</v>
+        <v>3007713.932893634</v>
       </c>
       <c r="H14">
-        <v>117710031.3830865</v>
+        <v>45861384982.18092</v>
       </c>
       <c r="I14">
-        <v>0.07095240763025545</v>
+        <v>0.08283110827733971</v>
       </c>
     </row>
     <row r="15">
@@ -6725,22 +2777,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>129873.70730248</v>
+        <v>2329647.14883742</v>
       </c>
       <c r="E15">
-        <v>9246.295316085398</v>
+        <v>180635.7221377805</v>
       </c>
       <c r="F15">
-        <v>111640.4147438411</v>
+        <v>1973441.354442183</v>
       </c>
       <c r="G15">
-        <v>148106.9998611189</v>
+        <v>2685852.943232657</v>
       </c>
       <c r="H15">
-        <v>85493977.07226276</v>
+        <v>32629264112.23744</v>
       </c>
       <c r="I15">
-        <v>0.07119451279349777</v>
+        <v>0.07753780319389757</v>
       </c>
     </row>
     <row r="16">
@@ -6758,22 +2810,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>121197.28300599</v>
+        <v>2045013.80649528</v>
       </c>
       <c r="E16">
-        <v>8417.033710427198</v>
+        <v>166815.355545882</v>
       </c>
       <c r="F16">
-        <v>104599.2582975255</v>
+        <v>1716061.174444895</v>
       </c>
       <c r="G16">
-        <v>137795.3077144545</v>
+        <v>2373966.438545665</v>
       </c>
       <c r="H16">
-        <v>70846456.48246785</v>
+        <v>27827362845.89904</v>
       </c>
       <c r="I16">
-        <v>0.0694490297279288</v>
+        <v>0.08157175028161213</v>
       </c>
     </row>
     <row r="17">
@@ -6791,22 +2843,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>12795.88857243</v>
+        <v>221270.4921711</v>
       </c>
       <c r="E17">
-        <v>2736.319932775182</v>
+        <v>49981.29250019087</v>
       </c>
       <c r="F17">
-        <v>7399.984573827465</v>
+        <v>122709.5553351876</v>
       </c>
       <c r="G17">
-        <v>18191.79257103254</v>
+        <v>319831.4290070124</v>
       </c>
       <c r="H17">
-        <v>7487446.774502777</v>
+        <v>2498129599.989636</v>
       </c>
       <c r="I17">
-        <v>0.2138436824677305</v>
+        <v>0.2258832255931453</v>
       </c>
     </row>
     <row r="18">
@@ -6824,22 +2876,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>4564.92105844</v>
+        <v>70513.89490617999</v>
       </c>
       <c r="E18">
-        <v>1449.813350093438</v>
+        <v>22537.05391950852</v>
       </c>
       <c r="F18">
-        <v>1705.952134779688</v>
+        <v>26071.80394145058</v>
       </c>
       <c r="G18">
-        <v>7423.889982100311</v>
+        <v>114955.9858709094</v>
       </c>
       <c r="H18">
-        <v>2101958.750109158</v>
+        <v>507918799.3708343</v>
       </c>
       <c r="I18">
-        <v>0.3175987780583641</v>
+        <v>0.3196115311669349</v>
       </c>
     </row>
     <row r="19">
@@ -6857,22 +2909,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>4626.15436919</v>
+        <v>79649.22508531999</v>
       </c>
       <c r="E19">
-        <v>1101.053195196235</v>
+        <v>21338.1710121038</v>
       </c>
       <c r="F19">
-        <v>2454.925315353483</v>
+        <v>37571.27911563888</v>
       </c>
       <c r="G19">
-        <v>6797.383423026517</v>
+        <v>121727.1710550011</v>
       </c>
       <c r="H19">
-        <v>1212318.138651838</v>
+        <v>455317542.1417868</v>
       </c>
       <c r="I19">
-        <v>0.2380061509683301</v>
+        <v>0.2679018030526527</v>
       </c>
     </row>
     <row r="20">
@@ -6890,22 +2942,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>7314.89719783</v>
+        <v>108007.20266012</v>
       </c>
       <c r="E20">
-        <v>1723.536879285794</v>
+        <v>26674.76187475809</v>
       </c>
       <c r="F20">
-        <v>3916.157369463136</v>
+        <v>55405.73141483366</v>
       </c>
       <c r="G20">
-        <v>10713.63702619686</v>
+        <v>160608.6739054064</v>
       </c>
       <c r="H20">
-        <v>2970579.374258215</v>
+        <v>711542921.0750477</v>
       </c>
       <c r="I20">
-        <v>0.2356201095754415</v>
+        <v>0.2469720649899521</v>
       </c>
     </row>
     <row r="21">
@@ -6923,22 +2975,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>114762.28848842</v>
+        <v>2611476.5628964</v>
       </c>
       <c r="E21">
-        <v>8272.171292866991</v>
+        <v>212930.7286223995</v>
       </c>
       <c r="F21">
-        <v>98449.92617227946</v>
+        <v>2191586.419117165</v>
       </c>
       <c r="G21">
-        <v>131074.6508045605</v>
+        <v>3031366.706675634</v>
       </c>
       <c r="H21">
-        <v>68428817.89853275</v>
+        <v>45339495191.66594</v>
       </c>
       <c r="I21">
-        <v>0.07208091962806831</v>
+        <v>0.08153652674800846</v>
       </c>
     </row>
     <row r="22">
@@ -6956,22 +3008,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>117369.16279278</v>
+        <v>2271518.51413091</v>
       </c>
       <c r="E22">
-        <v>8032.814493380962</v>
+        <v>184877.6148833683</v>
       </c>
       <c r="F22">
-        <v>101528.8016837971</v>
+        <v>1906947.891575997</v>
       </c>
       <c r="G22">
-        <v>133209.5239017629</v>
+        <v>2636089.136685823</v>
       </c>
       <c r="H22">
-        <v>64526108.68507124</v>
+        <v>34179732484.96303</v>
       </c>
       <c r="I22">
-        <v>0.06844058781916354</v>
+        <v>0.08138943782903879</v>
       </c>
     </row>
     <row r="23">
@@ -6989,22 +3041,22 @@
         </is>
       </c>
       <c r="D23">
-        <v>89764.76988809</v>
+        <v>1685405.0516155</v>
       </c>
       <c r="E23">
-        <v>6816.106300807926</v>
+        <v>154280.4973105931</v>
       </c>
       <c r="F23">
-        <v>76323.70446189621</v>
+        <v>1381170.615293461</v>
       </c>
       <c r="G23">
-        <v>103205.8353142838</v>
+        <v>1989639.487937539</v>
       </c>
       <c r="H23">
-        <v>46459305.10391352</v>
+        <v>23802471850.40391</v>
       </c>
       <c r="I23">
-        <v>0.07593297804144751</v>
+        <v>0.09153912121167052</v>
       </c>
     </row>
     <row r="24">
@@ -7022,22 +3074,22 @@
         </is>
       </c>
       <c r="D24">
-        <v>111088.66577699</v>
+        <v>2278212.93311465</v>
       </c>
       <c r="E24">
-        <v>9185.701120700283</v>
+        <v>193920.1594949464</v>
       </c>
       <c r="F24">
-        <v>92974.86233848442</v>
+        <v>1895810.805536247</v>
       </c>
       <c r="G24">
-        <v>129202.4692154956</v>
+        <v>2660615.060693054</v>
       </c>
       <c r="H24">
-        <v>84377105.07883444</v>
+        <v>37605028258.54547</v>
       </c>
       <c r="I24">
-        <v>0.0826880137271658</v>
+        <v>0.08511941824060723</v>
       </c>
     </row>
     <row r="25">
@@ -7055,22 +3107,22 @@
         </is>
       </c>
       <c r="D25">
-        <v>384764.67097681</v>
+        <v>6575750.56325205</v>
       </c>
       <c r="E25">
-        <v>15373.97755840413</v>
+        <v>315585.7155273694</v>
       </c>
       <c r="F25">
-        <v>354447.8553193354</v>
+        <v>5953429.246245483</v>
       </c>
       <c r="G25">
-        <v>415081.4866342845</v>
+        <v>7198071.880258618</v>
       </c>
       <c r="H25">
-        <v>236359185.9663137</v>
+        <v>99594343844.92172</v>
       </c>
       <c r="I25">
-        <v>0.03995683262544322</v>
+        <v>0.04799234893290962</v>
       </c>
     </row>
     <row r="26">
@@ -7088,22 +3140,22 @@
         </is>
       </c>
       <c r="D26">
-        <v>377051.15078387</v>
+        <v>6122783.8404323</v>
       </c>
       <c r="E26">
-        <v>16313.70277191136</v>
+        <v>310479.5552906513</v>
       </c>
       <c r="F26">
-        <v>344881.2378418215</v>
+        <v>5510531.649520527</v>
       </c>
       <c r="G26">
-        <v>409221.0637259186</v>
+        <v>6735036.031344074</v>
       </c>
       <c r="H26">
-        <v>266136898.1302683</v>
+        <v>96397554253.48058</v>
       </c>
       <c r="I26">
-        <v>0.04326655080615987</v>
+        <v>0.05070888722877563</v>
       </c>
     </row>
     <row r="27">
@@ -7121,22 +3173,22 @@
         </is>
       </c>
       <c r="D27">
-        <v>377629.87140114</v>
+        <v>6404457.63710478</v>
       </c>
       <c r="E27">
-        <v>14871.89273669494</v>
+        <v>300032.2658478604</v>
       </c>
       <c r="F27">
-        <v>348303.1451936043</v>
+        <v>5812807.046979411</v>
       </c>
       <c r="G27">
-        <v>406956.5976086757</v>
+        <v>6996108.22723015</v>
       </c>
       <c r="H27">
-        <v>221173193.5717597</v>
+        <v>90019360549.80119</v>
       </c>
       <c r="I27">
-        <v>0.03938219368482417</v>
+        <v>0.04684741204463552</v>
       </c>
     </row>
     <row r="28">
@@ -7154,22 +3206,22 @@
         </is>
       </c>
       <c r="D28">
-        <v>349174.16437029</v>
+        <v>5686119.33139071</v>
       </c>
       <c r="E28">
-        <v>15428.44103683628</v>
+        <v>280535.1665362695</v>
       </c>
       <c r="F28">
-        <v>318749.9491000985</v>
+        <v>5132916.173846758</v>
       </c>
       <c r="G28">
-        <v>379598.3796404816</v>
+        <v>6239322.488934661</v>
       </c>
       <c r="H28">
-        <v>238036792.8271336</v>
+        <v>78699979663.53249</v>
       </c>
       <c r="I28">
-        <v>0.04418551717496149</v>
+        <v>0.04933684120689327</v>
       </c>
     </row>
     <row r="29">
@@ -7187,22 +3239,22 @@
         </is>
       </c>
       <c r="D29">
-        <v>99686.04351165</v>
+        <v>1836325.19416781</v>
       </c>
       <c r="E29">
-        <v>8027.738569638934</v>
+        <v>184947.6182161797</v>
       </c>
       <c r="F29">
-        <v>83855.69190370831</v>
+        <v>1471616.52808264</v>
       </c>
       <c r="G29">
-        <v>115516.3951195917</v>
+        <v>2201033.86025298</v>
       </c>
       <c r="H29">
-        <v>64444586.54246856</v>
+        <v>34205621483.83776</v>
       </c>
       <c r="I29">
-        <v>0.08053021553313787</v>
+        <v>0.1007161579025194</v>
       </c>
     </row>
     <row r="30">
@@ -7220,22 +3272,22 @@
         </is>
       </c>
       <c r="D30">
-        <v>72708.24484087</v>
+        <v>1305424.05868914</v>
       </c>
       <c r="E30">
-        <v>5837.093753803084</v>
+        <v>110213.4403697074</v>
       </c>
       <c r="F30">
-        <v>61197.74961364699</v>
+        <v>1088087.943687595</v>
       </c>
       <c r="G30">
-        <v>84218.74006809301</v>
+        <v>1522760.173690685</v>
       </c>
       <c r="H30">
-        <v>34071663.49068698</v>
+        <v>12147002438.12705</v>
       </c>
       <c r="I30">
-        <v>0.0802810433201655</v>
+        <v>0.0844273089928952</v>
       </c>
     </row>
     <row r="31">
@@ -7253,22 +3305,22 @@
         </is>
       </c>
       <c r="D31">
-        <v>93409.84281786</v>
+        <v>1837022.19237376</v>
       </c>
       <c r="E31">
-        <v>8519.718305279022</v>
+        <v>189908.5032465049</v>
       </c>
       <c r="F31">
-        <v>76609.3285505836</v>
+        <v>1462530.87658776</v>
       </c>
       <c r="G31">
-        <v>110210.3570851364</v>
+        <v>2211513.50815976</v>
       </c>
       <c r="H31">
-        <v>72585600.00130646</v>
+        <v>36065239605.32776</v>
       </c>
       <c r="I31">
-        <v>0.09120792893198242</v>
+        <v>0.103378448031218</v>
       </c>
     </row>
     <row r="32">
@@ -7286,22 +3338,22 @@
         </is>
       </c>
       <c r="D32">
-        <v>87175.97112479999</v>
+        <v>1763356.54569428</v>
       </c>
       <c r="E32">
-        <v>7990.752566617167</v>
+        <v>185768.8115632091</v>
       </c>
       <c r="F32">
-        <v>71418.55430756279</v>
+        <v>1397028.522014339</v>
       </c>
       <c r="G32">
-        <v>102933.3879420372</v>
+        <v>2129684.569374221</v>
       </c>
       <c r="H32">
-        <v>63852126.58089884</v>
+        <v>34510051349.6071</v>
       </c>
       <c r="I32">
-        <v>0.09166232923494146</v>
+        <v>0.1053495460216567</v>
       </c>
     </row>
     <row r="33">
@@ -7319,22 +3371,22 @@
         </is>
       </c>
       <c r="D33">
-        <v>47273.97047816</v>
+        <v>755929.4157029201</v>
       </c>
       <c r="E33">
-        <v>6712.369903536555</v>
+        <v>135607.6496686521</v>
       </c>
       <c r="F33">
-        <v>34037.46871944259</v>
+        <v>488517.0234882227</v>
       </c>
       <c r="G33">
-        <v>60510.47223687741</v>
+        <v>1023341.807917617</v>
       </c>
       <c r="H33">
-        <v>45055909.72190335</v>
+        <v>18389434648.65587</v>
       </c>
       <c r="I33">
-        <v>0.1419887061662737</v>
+        <v>0.1793919469882699</v>
       </c>
     </row>
     <row r="34">
@@ -7352,22 +3404,22 @@
         </is>
       </c>
       <c r="D34">
-        <v>39165.88070876</v>
+        <v>628533.55649213</v>
       </c>
       <c r="E34">
-        <v>4461.869069300767</v>
+        <v>79694.55286720308</v>
       </c>
       <c r="F34">
-        <v>30367.26879795788</v>
+        <v>471379.3614244317</v>
       </c>
       <c r="G34">
-        <v>47964.49261956212</v>
+        <v>785687.7515598284</v>
       </c>
       <c r="H34">
-        <v>19908275.59158289</v>
+        <v>6351221756.703426</v>
       </c>
       <c r="I34">
-        <v>0.113922347424778</v>
+        <v>0.1267944281479281</v>
       </c>
     </row>
     <row r="35">
@@ -7385,22 +3437,22 @@
         </is>
       </c>
       <c r="D35">
-        <v>45877.68705079</v>
+        <v>888648.8445911</v>
       </c>
       <c r="E35">
-        <v>7418.525232928274</v>
+        <v>225903.781860838</v>
       </c>
       <c r="F35">
-        <v>31248.67766902034</v>
+        <v>443176.4035794003</v>
       </c>
       <c r="G35">
-        <v>60506.69643255966</v>
+        <v>1334121.2856028</v>
       </c>
       <c r="H35">
-        <v>55034516.6315935</v>
+        <v>51032518659.02908</v>
       </c>
       <c r="I35">
-        <v>0.1617022502619937</v>
+        <v>0.2542104040711206</v>
       </c>
     </row>
     <row r="36">
@@ -7418,22 +3470,22 @@
         </is>
       </c>
       <c r="D36">
-        <v>24937.56659537</v>
+        <v>409118.68151068</v>
       </c>
       <c r="E36">
-        <v>3584.35289802929</v>
+        <v>61361.91913854074</v>
       </c>
       <c r="F36">
-        <v>17869.37844119341</v>
+        <v>288115.6434975878</v>
       </c>
       <c r="G36">
-        <v>32005.75474954659</v>
+        <v>530121.7195237722</v>
       </c>
       <c r="H36">
-        <v>12847585.69761097</v>
+        <v>3765285120.364812</v>
       </c>
       <c r="I36">
-        <v>0.1437330657071719</v>
+        <v>0.1499856200942975</v>
       </c>
     </row>
     <row r="37">
@@ -7451,22 +3503,22 @@
         </is>
       </c>
       <c r="D37">
-        <v>15830.88079305</v>
+        <v>303345.88976702</v>
       </c>
       <c r="E37">
-        <v>3291.399474183637</v>
+        <v>68483.33197000752</v>
       </c>
       <c r="F37">
-        <v>9340.384060186803</v>
+        <v>168299.7351165985</v>
       </c>
       <c r="G37">
-        <v>22321.3775259132</v>
+        <v>438392.0444174416</v>
       </c>
       <c r="H37">
-        <v>10833310.49865632</v>
+        <v>4689966757.714254</v>
       </c>
       <c r="I37">
-        <v>0.2079100662313503</v>
+        <v>0.225759880981427</v>
       </c>
     </row>
     <row r="38">
@@ -7484,22 +3536,22 @@
         </is>
       </c>
       <c r="D38">
-        <v>15196.09616751</v>
+        <v>256886.70325938</v>
       </c>
       <c r="E38">
-        <v>3461.03999863174</v>
+        <v>67317.40832017142</v>
       </c>
       <c r="F38">
-        <v>8371.075692291066</v>
+        <v>124139.6993803506</v>
       </c>
       <c r="G38">
-        <v>22021.11664272894</v>
+        <v>389633.7071384094</v>
       </c>
       <c r="H38">
-        <v>11978797.8721288</v>
+        <v>4531633462.944685</v>
       </c>
       <c r="I38">
-        <v>0.2277584953714371</v>
+        <v>0.2620509643591815</v>
       </c>
     </row>
     <row r="39">
@@ -7517,22 +3569,22 @@
         </is>
       </c>
       <c r="D39">
-        <v>15771.19137265</v>
+        <v>252572.75298864</v>
       </c>
       <c r="E39">
-        <v>2911.133026678714</v>
+        <v>48308.86088169448</v>
       </c>
       <c r="F39">
-        <v>10030.5635495035</v>
+        <v>157309.7786276352</v>
       </c>
       <c r="G39">
-        <v>21511.8191957965</v>
+        <v>347835.7273496449</v>
       </c>
       <c r="H39">
-        <v>8474695.499019567</v>
+        <v>2333746039.686911</v>
       </c>
       <c r="I39">
-        <v>0.1845854861495833</v>
+        <v>0.1912671113968785</v>
       </c>
     </row>
     <row r="40">
@@ -7550,22 +3602,22 @@
         </is>
       </c>
       <c r="D40">
-        <v>16040.96893791</v>
+        <v>321410.49579817</v>
       </c>
       <c r="E40">
-        <v>3105.425472054325</v>
+        <v>71034.45524576613</v>
       </c>
       <c r="F40">
-        <v>9917.204855606389</v>
+        <v>181333.6369089233</v>
       </c>
       <c r="G40">
-        <v>22164.73302021361</v>
+        <v>461487.3546874167</v>
       </c>
       <c r="H40">
-        <v>9643667.362483827</v>
+        <v>5045893832.062752</v>
       </c>
       <c r="I40">
-        <v>0.1935933847933088</v>
+        <v>0.2210085114655754</v>
       </c>
     </row>
     <row r="41">
@@ -7583,22 +3635,22 @@
         </is>
       </c>
       <c r="D41">
-        <v>14869.13958536</v>
+        <v>239135.98704741</v>
       </c>
       <c r="E41">
-        <v>2938.582837394283</v>
+        <v>55687.37174288886</v>
       </c>
       <c r="F41">
-        <v>9074.381928334462</v>
+        <v>129322.9099068402</v>
       </c>
       <c r="G41">
-        <v>20663.89724238554</v>
+        <v>348949.0641879798</v>
       </c>
       <c r="H41">
-        <v>8635269.092228236</v>
+        <v>3101083371.630696</v>
       </c>
       <c r="I41">
-        <v>0.1976296490139605</v>
+        <v>0.2328690567674724</v>
       </c>
     </row>
     <row r="42">
@@ -7616,22 +3668,22 @@
         </is>
       </c>
       <c r="D42">
-        <v>13774.45220014</v>
+        <v>256275.51523711</v>
       </c>
       <c r="E42">
-        <v>2928.906574586921</v>
+        <v>66385.26133263313</v>
       </c>
       <c r="F42">
-        <v>7998.775712881339</v>
+        <v>125366.6647103613</v>
       </c>
       <c r="G42">
-        <v>19550.12868739866</v>
+        <v>387184.3657638587</v>
       </c>
       <c r="H42">
-        <v>8578493.722658493</v>
+        <v>4407002922.201996</v>
       </c>
       <c r="I42">
-        <v>0.2126332526354226</v>
+        <v>0.2590386415620411</v>
       </c>
     </row>
     <row r="43">
@@ -7649,22 +3701,22 @@
         </is>
       </c>
       <c r="D43">
-        <v>21681.82750599</v>
+        <v>344308.88743968</v>
       </c>
       <c r="E43">
-        <v>3664.946000658172</v>
+        <v>63647.28180635578</v>
       </c>
       <c r="F43">
-        <v>14454.71325566283</v>
+        <v>218799.2135578013</v>
       </c>
       <c r="G43">
-        <v>28908.94175631717</v>
+        <v>469818.5613215587</v>
       </c>
       <c r="H43">
-        <v>13431829.18774033</v>
+        <v>4050976481.337667</v>
       </c>
       <c r="I43">
-        <v>0.1690330761853752</v>
+        <v>0.1848551812869084</v>
       </c>
     </row>
     <row r="44">
@@ -7682,22 +3734,22 @@
         </is>
       </c>
       <c r="D44">
-        <v>19837.17419607</v>
+        <v>362239.99685726</v>
       </c>
       <c r="E44">
-        <v>4692.845108844193</v>
+        <v>86678.32364102257</v>
       </c>
       <c r="F44">
-        <v>10583.08757252487</v>
+        <v>191314.1093085742</v>
       </c>
       <c r="G44">
-        <v>29091.26081961513</v>
+        <v>533165.8844059458</v>
       </c>
       <c r="H44">
-        <v>22022795.21560286</v>
+        <v>7513131789.217852</v>
       </c>
       <c r="I44">
-        <v>0.236568226021522</v>
+        <v>0.239284243576167</v>
       </c>
     </row>
     <row r="45">
@@ -7715,22 +3767,22 @@
         </is>
       </c>
       <c r="D45">
-        <v>1175222.06382233</v>
+        <v>19888589.425939</v>
       </c>
       <c r="E45">
-        <v>31265.86637641825</v>
+        <v>624386.7849979108</v>
       </c>
       <c r="F45">
-        <v>1113567.134009651</v>
+        <v>18657325.81911806</v>
       </c>
       <c r="G45">
-        <v>1236876.993635009</v>
+        <v>21119853.03275994</v>
       </c>
       <c r="H45">
-        <v>977554400.268041</v>
+        <v>389858857280.0273</v>
       </c>
       <c r="I45">
-        <v>0.02660422003542729</v>
+        <v>0.03139422166277796</v>
       </c>
     </row>
     <row r="46">
@@ -7748,22 +3800,22 @@
         </is>
       </c>
       <c r="D46">
-        <v>1209222.10039264</v>
+        <v>19538083.88612973</v>
       </c>
       <c r="E46">
-        <v>31495.99768246887</v>
+        <v>618581.9120434682</v>
       </c>
       <c r="F46">
-        <v>1147113.361644958</v>
+        <v>18318267.23651985</v>
       </c>
       <c r="G46">
-        <v>1271330.839140323</v>
+        <v>20757900.53573961</v>
       </c>
       <c r="H46">
-        <v>991997870.0140842</v>
+        <v>382643581907.353</v>
       </c>
       <c r="I46">
-        <v>0.02604649524040453</v>
+        <v>0.03166031611127462</v>
       </c>
     </row>
     <row r="47">
@@ -7781,22 +3833,22 @@
         </is>
       </c>
       <c r="D47">
-        <v>1192095.4819927</v>
+        <v>19903210.30899176</v>
       </c>
       <c r="E47">
-        <v>32851.2451596359</v>
+        <v>626970.944550167</v>
       </c>
       <c r="F47">
-        <v>1127314.254113337</v>
+        <v>18666850.85183036</v>
       </c>
       <c r="G47">
-        <v>1256876.709872063</v>
+        <v>21139569.76615316</v>
       </c>
       <c r="H47">
-        <v>1079204308.538501</v>
+        <v>393092565310.1285</v>
       </c>
       <c r="I47">
-        <v>0.02755756200394447</v>
+        <v>0.03150099581005369</v>
       </c>
     </row>
     <row r="48">
@@ -7814,22 +3866,22 @@
         </is>
       </c>
       <c r="D48">
-        <v>1171633.7419564</v>
+        <v>20170312.51163327</v>
       </c>
       <c r="E48">
-        <v>35764.7604816117</v>
+        <v>740127.2783938326</v>
       </c>
       <c r="F48">
-        <v>1101107.188471089</v>
+        <v>18710813.68142531</v>
       </c>
       <c r="G48">
-        <v>1242160.295441711</v>
+        <v>21629811.34184122</v>
       </c>
       <c r="H48">
-        <v>1279118092.307054</v>
+        <v>547788388222.6618</v>
       </c>
       <c r="I48">
-        <v>0.03052554667970856</v>
+        <v>0.0366938924702809</v>
       </c>
     </row>
     <row r="49">
@@ -7847,22 +3899,22 @@
         </is>
       </c>
       <c r="D49">
-        <v>581348.38836172</v>
+        <v>12212050.58348991</v>
       </c>
       <c r="E49">
-        <v>19601.95298641072</v>
+        <v>476932.4420823778</v>
       </c>
       <c r="F49">
-        <v>542694.1888900523</v>
+        <v>11271560.53315959</v>
       </c>
       <c r="G49">
-        <v>620002.5878333878</v>
+        <v>13152540.63382022</v>
       </c>
       <c r="H49">
-        <v>384236560.8814563</v>
+        <v>227464554310.6607</v>
       </c>
       <c r="I49">
-        <v>0.03371808261419695</v>
+        <v>0.03905424718164589</v>
       </c>
     </row>
     <row r="50">
@@ -7880,22 +3932,22 @@
         </is>
       </c>
       <c r="D50">
-        <v>608936.78256448</v>
+        <v>12157260.28069403</v>
       </c>
       <c r="E50">
-        <v>19671.64282066803</v>
+        <v>437379.3026310262</v>
       </c>
       <c r="F50">
-        <v>570145.1577680807</v>
+        <v>11294767.30255051</v>
       </c>
       <c r="G50">
-        <v>647728.4073608792</v>
+        <v>13019753.25883755</v>
       </c>
       <c r="H50">
-        <v>386973531.2639402</v>
+        <v>191300654370.0028</v>
       </c>
       <c r="I50">
-        <v>0.03230490156600946</v>
+        <v>0.03597679843423219</v>
       </c>
     </row>
     <row r="51">
@@ -7913,22 +3965,22 @@
         </is>
       </c>
       <c r="D51">
-        <v>632960.69181039</v>
+        <v>13119396.8661203</v>
       </c>
       <c r="E51">
-        <v>21704.48504917483</v>
+        <v>492589.2708222136</v>
       </c>
       <c r="F51">
-        <v>590160.3904780553</v>
+        <v>12148032.22989424</v>
       </c>
       <c r="G51">
-        <v>675760.9931427246</v>
+        <v>14090761.50234636</v>
       </c>
       <c r="H51">
-        <v>471084671.2498538</v>
+        <v>242644189729.1601</v>
       </c>
       <c r="I51">
-        <v>0.03429041539229839</v>
+        <v>0.0375466399750649</v>
       </c>
     </row>
     <row r="52">
@@ -7946,22 +3998,22 @@
         </is>
       </c>
       <c r="D52">
-        <v>600539.99909607</v>
+        <v>12201675.41095718</v>
       </c>
       <c r="E52">
-        <v>19211.89490843401</v>
+        <v>411541.1009849973</v>
       </c>
       <c r="F52">
-        <v>562654.9772039066</v>
+        <v>11390134.24364124</v>
       </c>
       <c r="G52">
-        <v>638425.0209882333</v>
+        <v>13013216.57827312</v>
       </c>
       <c r="H52">
-        <v>369096905.9727125</v>
+        <v>169366077799.9437</v>
       </c>
       <c r="I52">
-        <v>0.03199103296591678</v>
+        <v>0.0337282452715822</v>
       </c>
     </row>
   </sheetData>
@@ -7969,1750 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_SEC</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>17347.98627925</v>
-      </c>
-      <c r="E2">
-        <v>11846.84904015965</v>
-      </c>
-      <c r="F2">
-        <v>-6013.485214255401</v>
-      </c>
-      <c r="G2">
-        <v>40709.4577727554</v>
-      </c>
-      <c r="H2">
-        <v>140347832.1803315</v>
-      </c>
-      <c r="I2">
-        <v>0.682894766543003</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>4081.6353795</v>
-      </c>
-      <c r="E3">
-        <v>4104.953726353055</v>
-      </c>
-      <c r="F3">
-        <v>-4013.154985032522</v>
-      </c>
-      <c r="G3">
-        <v>12176.42574403252</v>
-      </c>
-      <c r="H3">
-        <v>16850645.09549983</v>
-      </c>
-      <c r="I3">
-        <v>1.005712991162849</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>32026.76696128</v>
-      </c>
-      <c r="E4">
-        <v>23320.53836933928</v>
-      </c>
-      <c r="F4">
-        <v>-13960.32129161268</v>
-      </c>
-      <c r="G4">
-        <v>78013.85521417268</v>
-      </c>
-      <c r="H4">
-        <v>543847509.8358257</v>
-      </c>
-      <c r="I4">
-        <v>0.7281577437252269</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>8346736.88476771</v>
-      </c>
-      <c r="E5">
-        <v>350808.3629438761</v>
-      </c>
-      <c r="F5">
-        <v>7654958.03768229</v>
-      </c>
-      <c r="G5">
-        <v>9038515.731853131</v>
-      </c>
-      <c r="H5">
-        <v>123066507511.3623</v>
-      </c>
-      <c r="I5">
-        <v>0.0420294023625065</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>8243962.06887195</v>
-      </c>
-      <c r="E6">
-        <v>321905.7060481853</v>
-      </c>
-      <c r="F6">
-        <v>7609178.00519825</v>
-      </c>
-      <c r="G6">
-        <v>8878746.13254565</v>
-      </c>
-      <c r="H6">
-        <v>103623283586.3807</v>
-      </c>
-      <c r="I6">
-        <v>0.03904745113562037</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>7415921.63875685</v>
-      </c>
-      <c r="E7">
-        <v>329210.1183337619</v>
-      </c>
-      <c r="F7">
-        <v>6766733.591474694</v>
-      </c>
-      <c r="G7">
-        <v>8065109.686039005</v>
-      </c>
-      <c r="H7">
-        <v>108379302013.3295</v>
-      </c>
-      <c r="I7">
-        <v>0.04439234047636839</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>6689776.0060988</v>
-      </c>
-      <c r="E8">
-        <v>268489.9200724734</v>
-      </c>
-      <c r="F8">
-        <v>6160325.551146257</v>
-      </c>
-      <c r="G8">
-        <v>7219226.461051344</v>
-      </c>
-      <c r="H8">
-        <v>72086837180.52313</v>
-      </c>
-      <c r="I8">
-        <v>0.04013436620713487</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>68951.09141748</v>
-      </c>
-      <c r="E9">
-        <v>24890.6514766919</v>
-      </c>
-      <c r="F9">
-        <v>19867.80834732788</v>
-      </c>
-      <c r="G9">
-        <v>118034.3744876321</v>
-      </c>
-      <c r="H9">
-        <v>619544530.9341444</v>
-      </c>
-      <c r="I9">
-        <v>0.3609899562863452</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>84728.57521616</v>
-      </c>
-      <c r="E10">
-        <v>34200.51912034316</v>
-      </c>
-      <c r="F10">
-        <v>17286.63771999213</v>
-      </c>
-      <c r="G10">
-        <v>152170.5127123279</v>
-      </c>
-      <c r="H10">
-        <v>1169675508.100958</v>
-      </c>
-      <c r="I10">
-        <v>0.4036479904576539</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>82326.13522353</v>
-      </c>
-      <c r="E11">
-        <v>34065.67051695136</v>
-      </c>
-      <c r="F11">
-        <v>15150.11331330381</v>
-      </c>
-      <c r="G11">
-        <v>149502.1571337562</v>
-      </c>
-      <c r="H11">
-        <v>1160469907.769489</v>
-      </c>
-      <c r="I11">
-        <v>0.4137892593215635</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>99754.66299868</v>
-      </c>
-      <c r="E12">
-        <v>43777.90448743405</v>
-      </c>
-      <c r="F12">
-        <v>13426.53775105627</v>
-      </c>
-      <c r="G12">
-        <v>186082.7882463037</v>
-      </c>
-      <c r="H12">
-        <v>1916504921.310899</v>
-      </c>
-      <c r="I12">
-        <v>0.4388557203387409</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>2413671.49709746</v>
-      </c>
-      <c r="E13">
-        <v>182500.6871204981</v>
-      </c>
-      <c r="F13">
-        <v>2053788.072799752</v>
-      </c>
-      <c r="G13">
-        <v>2773554.921395168</v>
-      </c>
-      <c r="H13">
-        <v>33306500799.45395</v>
-      </c>
-      <c r="I13">
-        <v>0.07561123679836414</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>2585414.08673615</v>
-      </c>
-      <c r="E14">
-        <v>214152.7141602014</v>
-      </c>
-      <c r="F14">
-        <v>2163114.240578666</v>
-      </c>
-      <c r="G14">
-        <v>3007713.932893634</v>
-      </c>
-      <c r="H14">
-        <v>45861384982.18092</v>
-      </c>
-      <c r="I14">
-        <v>0.08283110827733971</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>2329647.14883742</v>
-      </c>
-      <c r="E15">
-        <v>180635.7221377805</v>
-      </c>
-      <c r="F15">
-        <v>1973441.354442183</v>
-      </c>
-      <c r="G15">
-        <v>2685852.943232657</v>
-      </c>
-      <c r="H15">
-        <v>32629264112.23744</v>
-      </c>
-      <c r="I15">
-        <v>0.07753780319389757</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>2045013.80649528</v>
-      </c>
-      <c r="E16">
-        <v>166815.355545882</v>
-      </c>
-      <c r="F16">
-        <v>1716061.174444895</v>
-      </c>
-      <c r="G16">
-        <v>2373966.438545665</v>
-      </c>
-      <c r="H16">
-        <v>27827362845.89904</v>
-      </c>
-      <c r="I16">
-        <v>0.08157175028161213</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>221270.4921711</v>
-      </c>
-      <c r="E17">
-        <v>49981.29250019087</v>
-      </c>
-      <c r="F17">
-        <v>122709.5553351876</v>
-      </c>
-      <c r="G17">
-        <v>319831.4290070124</v>
-      </c>
-      <c r="H17">
-        <v>2498129599.989636</v>
-      </c>
-      <c r="I17">
-        <v>0.2258832255931453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>70513.89490617999</v>
-      </c>
-      <c r="E18">
-        <v>22537.05391950852</v>
-      </c>
-      <c r="F18">
-        <v>26071.80394145058</v>
-      </c>
-      <c r="G18">
-        <v>114955.9858709094</v>
-      </c>
-      <c r="H18">
-        <v>507918799.3708343</v>
-      </c>
-      <c r="I18">
-        <v>0.3196115311669349</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>79649.22508531999</v>
-      </c>
-      <c r="E19">
-        <v>21338.1710121038</v>
-      </c>
-      <c r="F19">
-        <v>37571.27911563888</v>
-      </c>
-      <c r="G19">
-        <v>121727.1710550011</v>
-      </c>
-      <c r="H19">
-        <v>455317542.1417868</v>
-      </c>
-      <c r="I19">
-        <v>0.2679018030526527</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>108007.20266012</v>
-      </c>
-      <c r="E20">
-        <v>26674.76187475809</v>
-      </c>
-      <c r="F20">
-        <v>55405.73141483366</v>
-      </c>
-      <c r="G20">
-        <v>160608.6739054064</v>
-      </c>
-      <c r="H20">
-        <v>711542921.0750477</v>
-      </c>
-      <c r="I20">
-        <v>0.2469720649899521</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>2611476.5628964</v>
-      </c>
-      <c r="E21">
-        <v>212930.7286223995</v>
-      </c>
-      <c r="F21">
-        <v>2191586.419117165</v>
-      </c>
-      <c r="G21">
-        <v>3031366.706675634</v>
-      </c>
-      <c r="H21">
-        <v>45339495191.66594</v>
-      </c>
-      <c r="I21">
-        <v>0.08153652674800846</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>2271518.51413091</v>
-      </c>
-      <c r="E22">
-        <v>184877.6148833683</v>
-      </c>
-      <c r="F22">
-        <v>1906947.891575997</v>
-      </c>
-      <c r="G22">
-        <v>2636089.136685823</v>
-      </c>
-      <c r="H22">
-        <v>34179732484.96303</v>
-      </c>
-      <c r="I22">
-        <v>0.08138943782903879</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>1685405.0516155</v>
-      </c>
-      <c r="E23">
-        <v>154280.4973105931</v>
-      </c>
-      <c r="F23">
-        <v>1381170.615293461</v>
-      </c>
-      <c r="G23">
-        <v>1989639.487937539</v>
-      </c>
-      <c r="H23">
-        <v>23802471850.40391</v>
-      </c>
-      <c r="I23">
-        <v>0.09153912121167052</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>2278212.93311465</v>
-      </c>
-      <c r="E24">
-        <v>193920.1594949464</v>
-      </c>
-      <c r="F24">
-        <v>1895810.805536247</v>
-      </c>
-      <c r="G24">
-        <v>2660615.060693054</v>
-      </c>
-      <c r="H24">
-        <v>37605028258.54547</v>
-      </c>
-      <c r="I24">
-        <v>0.08511941824060723</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>6575750.56325205</v>
-      </c>
-      <c r="E25">
-        <v>315585.7155273694</v>
-      </c>
-      <c r="F25">
-        <v>5953429.246245483</v>
-      </c>
-      <c r="G25">
-        <v>7198071.880258618</v>
-      </c>
-      <c r="H25">
-        <v>99594343844.92172</v>
-      </c>
-      <c r="I25">
-        <v>0.04799234893290962</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>6122783.8404323</v>
-      </c>
-      <c r="E26">
-        <v>310479.5552906513</v>
-      </c>
-      <c r="F26">
-        <v>5510531.649520527</v>
-      </c>
-      <c r="G26">
-        <v>6735036.031344074</v>
-      </c>
-      <c r="H26">
-        <v>96397554253.48058</v>
-      </c>
-      <c r="I26">
-        <v>0.05070888722877563</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>6404457.63710478</v>
-      </c>
-      <c r="E27">
-        <v>300032.2658478604</v>
-      </c>
-      <c r="F27">
-        <v>5812807.046979411</v>
-      </c>
-      <c r="G27">
-        <v>6996108.22723015</v>
-      </c>
-      <c r="H27">
-        <v>90019360549.80119</v>
-      </c>
-      <c r="I27">
-        <v>0.04684741204463552</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>5686119.33139071</v>
-      </c>
-      <c r="E28">
-        <v>280535.1665362695</v>
-      </c>
-      <c r="F28">
-        <v>5132916.173846758</v>
-      </c>
-      <c r="G28">
-        <v>6239322.488934661</v>
-      </c>
-      <c r="H28">
-        <v>78699979663.53249</v>
-      </c>
-      <c r="I28">
-        <v>0.04933684120689327</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>1836325.19416781</v>
-      </c>
-      <c r="E29">
-        <v>184947.6182161797</v>
-      </c>
-      <c r="F29">
-        <v>1471616.52808264</v>
-      </c>
-      <c r="G29">
-        <v>2201033.86025298</v>
-      </c>
-      <c r="H29">
-        <v>34205621483.83776</v>
-      </c>
-      <c r="I29">
-        <v>0.1007161579025194</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>1305424.05868914</v>
-      </c>
-      <c r="E30">
-        <v>110213.4403697074</v>
-      </c>
-      <c r="F30">
-        <v>1088087.943687595</v>
-      </c>
-      <c r="G30">
-        <v>1522760.173690685</v>
-      </c>
-      <c r="H30">
-        <v>12147002438.12705</v>
-      </c>
-      <c r="I30">
-        <v>0.0844273089928952</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>1837022.19237376</v>
-      </c>
-      <c r="E31">
-        <v>189908.5032465049</v>
-      </c>
-      <c r="F31">
-        <v>1462530.87658776</v>
-      </c>
-      <c r="G31">
-        <v>2211513.50815976</v>
-      </c>
-      <c r="H31">
-        <v>36065239605.32776</v>
-      </c>
-      <c r="I31">
-        <v>0.103378448031218</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>1763356.54569428</v>
-      </c>
-      <c r="E32">
-        <v>185768.8115632091</v>
-      </c>
-      <c r="F32">
-        <v>1397028.522014339</v>
-      </c>
-      <c r="G32">
-        <v>2129684.569374221</v>
-      </c>
-      <c r="H32">
-        <v>34510051349.6071</v>
-      </c>
-      <c r="I32">
-        <v>0.1053495460216567</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>755929.4157029201</v>
-      </c>
-      <c r="E33">
-        <v>135607.6496686521</v>
-      </c>
-      <c r="F33">
-        <v>488517.0234882227</v>
-      </c>
-      <c r="G33">
-        <v>1023341.807917617</v>
-      </c>
-      <c r="H33">
-        <v>18389434648.65587</v>
-      </c>
-      <c r="I33">
-        <v>0.1793919469882699</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>628533.55649213</v>
-      </c>
-      <c r="E34">
-        <v>79694.55286720308</v>
-      </c>
-      <c r="F34">
-        <v>471379.3614244317</v>
-      </c>
-      <c r="G34">
-        <v>785687.7515598284</v>
-      </c>
-      <c r="H34">
-        <v>6351221756.703426</v>
-      </c>
-      <c r="I34">
-        <v>0.1267944281479281</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>888648.8445911</v>
-      </c>
-      <c r="E35">
-        <v>225903.781860838</v>
-      </c>
-      <c r="F35">
-        <v>443176.4035794003</v>
-      </c>
-      <c r="G35">
-        <v>1334121.2856028</v>
-      </c>
-      <c r="H35">
-        <v>51032518659.02908</v>
-      </c>
-      <c r="I35">
-        <v>0.2542104040711206</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>409118.68151068</v>
-      </c>
-      <c r="E36">
-        <v>61361.91913854074</v>
-      </c>
-      <c r="F36">
-        <v>288115.6434975878</v>
-      </c>
-      <c r="G36">
-        <v>530121.7195237722</v>
-      </c>
-      <c r="H36">
-        <v>3765285120.364812</v>
-      </c>
-      <c r="I36">
-        <v>0.1499856200942975</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>303345.88976702</v>
-      </c>
-      <c r="E37">
-        <v>68483.33197000752</v>
-      </c>
-      <c r="F37">
-        <v>168299.7351165985</v>
-      </c>
-      <c r="G37">
-        <v>438392.0444174416</v>
-      </c>
-      <c r="H37">
-        <v>4689966757.714254</v>
-      </c>
-      <c r="I37">
-        <v>0.225759880981427</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>256886.70325938</v>
-      </c>
-      <c r="E38">
-        <v>67317.40832017142</v>
-      </c>
-      <c r="F38">
-        <v>124139.6993803506</v>
-      </c>
-      <c r="G38">
-        <v>389633.7071384094</v>
-      </c>
-      <c r="H38">
-        <v>4531633462.944685</v>
-      </c>
-      <c r="I38">
-        <v>0.2620509643591815</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>252572.75298864</v>
-      </c>
-      <c r="E39">
-        <v>48308.86088169448</v>
-      </c>
-      <c r="F39">
-        <v>157309.7786276352</v>
-      </c>
-      <c r="G39">
-        <v>347835.7273496449</v>
-      </c>
-      <c r="H39">
-        <v>2333746039.686911</v>
-      </c>
-      <c r="I39">
-        <v>0.1912671113968785</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>321410.49579817</v>
-      </c>
-      <c r="E40">
-        <v>71034.45524576613</v>
-      </c>
-      <c r="F40">
-        <v>181333.6369089233</v>
-      </c>
-      <c r="G40">
-        <v>461487.3546874167</v>
-      </c>
-      <c r="H40">
-        <v>5045893832.062752</v>
-      </c>
-      <c r="I40">
-        <v>0.2210085114655754</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>239135.98704741</v>
-      </c>
-      <c r="E41">
-        <v>55687.37174288886</v>
-      </c>
-      <c r="F41">
-        <v>129322.9099068402</v>
-      </c>
-      <c r="G41">
-        <v>348949.0641879798</v>
-      </c>
-      <c r="H41">
-        <v>3101083371.630696</v>
-      </c>
-      <c r="I41">
-        <v>0.2328690567674724</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>256275.51523711</v>
-      </c>
-      <c r="E42">
-        <v>66385.26133263313</v>
-      </c>
-      <c r="F42">
-        <v>125366.6647103613</v>
-      </c>
-      <c r="G42">
-        <v>387184.3657638587</v>
-      </c>
-      <c r="H42">
-        <v>4407002922.201996</v>
-      </c>
-      <c r="I42">
-        <v>0.2590386415620411</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>344308.88743968</v>
-      </c>
-      <c r="E43">
-        <v>63647.28180635578</v>
-      </c>
-      <c r="F43">
-        <v>218799.2135578013</v>
-      </c>
-      <c r="G43">
-        <v>469818.5613215587</v>
-      </c>
-      <c r="H43">
-        <v>4050976481.337667</v>
-      </c>
-      <c r="I43">
-        <v>0.1848551812869084</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>362239.99685726</v>
-      </c>
-      <c r="E44">
-        <v>86678.32364102257</v>
-      </c>
-      <c r="F44">
-        <v>191314.1093085742</v>
-      </c>
-      <c r="G44">
-        <v>533165.8844059458</v>
-      </c>
-      <c r="H44">
-        <v>7513131789.217852</v>
-      </c>
-      <c r="I44">
-        <v>0.239284243576167</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>11</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>19888589.425939</v>
-      </c>
-      <c r="E45">
-        <v>624386.7849979108</v>
-      </c>
-      <c r="F45">
-        <v>18657325.81911806</v>
-      </c>
-      <c r="G45">
-        <v>21119853.03275994</v>
-      </c>
-      <c r="H45">
-        <v>389858857280.0273</v>
-      </c>
-      <c r="I45">
-        <v>0.03139422166277796</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>19538083.88612973</v>
-      </c>
-      <c r="E46">
-        <v>618581.9120434682</v>
-      </c>
-      <c r="F46">
-        <v>18318267.23651985</v>
-      </c>
-      <c r="G46">
-        <v>20757900.53573961</v>
-      </c>
-      <c r="H46">
-        <v>382643581907.353</v>
-      </c>
-      <c r="I46">
-        <v>0.03166031611127462</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>19903210.30899176</v>
-      </c>
-      <c r="E47">
-        <v>626970.944550167</v>
-      </c>
-      <c r="F47">
-        <v>18666850.85183036</v>
-      </c>
-      <c r="G47">
-        <v>21139569.76615316</v>
-      </c>
-      <c r="H47">
-        <v>393092565310.1285</v>
-      </c>
-      <c r="I47">
-        <v>0.03150099581005369</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>20170312.51163327</v>
-      </c>
-      <c r="E48">
-        <v>740127.2783938326</v>
-      </c>
-      <c r="F48">
-        <v>18710813.68142531</v>
-      </c>
-      <c r="G48">
-        <v>21629811.34184122</v>
-      </c>
-      <c r="H48">
-        <v>547788388222.6618</v>
-      </c>
-      <c r="I48">
-        <v>0.0366938924702809</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>12</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>12212050.58348991</v>
-      </c>
-      <c r="E49">
-        <v>476932.4420823778</v>
-      </c>
-      <c r="F49">
-        <v>11271560.53315959</v>
-      </c>
-      <c r="G49">
-        <v>13152540.63382022</v>
-      </c>
-      <c r="H49">
-        <v>227464554310.6607</v>
-      </c>
-      <c r="I49">
-        <v>0.03905424718164589</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>12157260.28069403</v>
-      </c>
-      <c r="E50">
-        <v>437379.3026310262</v>
-      </c>
-      <c r="F50">
-        <v>11294767.30255051</v>
-      </c>
-      <c r="G50">
-        <v>13019753.25883755</v>
-      </c>
-      <c r="H50">
-        <v>191300654370.0028</v>
-      </c>
-      <c r="I50">
-        <v>0.03597679843423219</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>13119396.8661203</v>
-      </c>
-      <c r="E51">
-        <v>492589.2708222136</v>
-      </c>
-      <c r="F51">
-        <v>12148032.22989424</v>
-      </c>
-      <c r="G51">
-        <v>14090761.50234636</v>
-      </c>
-      <c r="H51">
-        <v>242644189729.1601</v>
-      </c>
-      <c r="I51">
-        <v>0.0375466399750649</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>12201675.41095718</v>
-      </c>
-      <c r="E52">
-        <v>411541.1009849973</v>
-      </c>
-      <c r="F52">
-        <v>11390134.24364124</v>
-      </c>
-      <c r="G52">
-        <v>13013216.57827312</v>
-      </c>
-      <c r="H52">
-        <v>169366077799.9437</v>
-      </c>
-      <c r="I52">
-        <v>0.0337282452715822</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
